--- a/raw_data/20200818_saline/20200818_Sensor2_Test_51.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_51.xlsx
@@ -1,628 +1,1044 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABEEC6-639F-47D7-926E-ACB1B686E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>45375.262420</v>
+        <v>45375.262419999999</v>
       </c>
       <c r="B2" s="1">
-        <v>12.604240</v>
+        <v>12.604240000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1251.730000</v>
+        <v>1251.73</v>
       </c>
       <c r="D2" s="1">
-        <v>-279.068000</v>
+        <v>-279.06799999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>45385.633269</v>
+        <v>45385.633268999998</v>
       </c>
       <c r="G2" s="1">
-        <v>12.607120</v>
+        <v>12.60712</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.950000</v>
+        <v>1272.95</v>
       </c>
       <c r="I2" s="1">
-        <v>-242.953000</v>
+        <v>-242.953</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>45396.070583</v>
+        <v>45396.070583000001</v>
       </c>
       <c r="L2" s="1">
-        <v>12.610020</v>
+        <v>12.61002</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.640000</v>
+        <v>1304.6400000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-191.503000</v>
+        <v>-191.50299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>45406.583818</v>
+        <v>45406.583817999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.612940</v>
+        <v>12.61294</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.800000</v>
+        <v>1316.8</v>
       </c>
       <c r="S2" s="1">
-        <v>-177.186000</v>
+        <v>-177.18600000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>45417.116864</v>
+        <v>45417.116864000003</v>
       </c>
       <c r="V2" s="1">
         <v>12.615866</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.500000</v>
+        <v>1330.5</v>
       </c>
       <c r="X2" s="1">
-        <v>-166.738000</v>
+        <v>-166.738</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>45427.564557</v>
+        <v>45427.564556999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.618768</v>
+        <v>12.618767999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.020000</v>
+        <v>1349.02</v>
       </c>
       <c r="AC2" s="1">
-        <v>-166.933000</v>
+        <v>-166.93299999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>45438.127888</v>
+        <v>45438.127888000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>12.621702</v>
+        <v>12.621702000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.590000</v>
+        <v>1362.59</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.604000</v>
+        <v>-177.60400000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>45448.551281</v>
       </c>
       <c r="AK2" s="1">
-        <v>12.624598</v>
+        <v>12.624598000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.102000</v>
+        <v>-208.102</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>45459.436980</v>
+        <v>45459.436979999999</v>
       </c>
       <c r="AP2" s="1">
         <v>12.627621</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.148000</v>
+        <v>-252.148</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>45470.394597</v>
+        <v>45470.394596999999</v>
       </c>
       <c r="AU2" s="1">
         <v>12.630665</v>
       </c>
       <c r="AV2" s="1">
-        <v>1430.610000</v>
+        <v>1430.61</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.245000</v>
+        <v>-312.245</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>45481.280326</v>
@@ -631,28 +1047,28 @@
         <v>12.633689</v>
       </c>
       <c r="BA2" s="1">
-        <v>1449.990000</v>
+        <v>1449.99</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.354000</v>
+        <v>-364.35399999999998</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>45491.866408</v>
+        <v>45491.866408000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.636630</v>
+        <v>12.63663</v>
       </c>
       <c r="BF2" s="1">
-        <v>1535.390000</v>
+        <v>1535.39</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.590000</v>
+        <v>-612.59</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>45502.586938</v>
@@ -661,165 +1077,165 @@
         <v>12.639607</v>
       </c>
       <c r="BK2" s="1">
-        <v>1689.750000</v>
+        <v>1689.75</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1057.300000</v>
+        <v>-1057.3</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>45513.752908</v>
+        <v>45513.752908000002</v>
       </c>
       <c r="BO2" s="1">
         <v>12.642709</v>
       </c>
       <c r="BP2" s="1">
-        <v>1983.890000</v>
+        <v>1983.89</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1828.030000</v>
+        <v>-1828.03</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>45525.249644</v>
+        <v>45525.249644000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.645903</v>
+        <v>12.645903000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2370.480000</v>
+        <v>2370.48</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2715.520000</v>
+        <v>-2715.52</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>45535.970174</v>
+        <v>45535.970174000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.648881</v>
+        <v>12.648880999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2854.260000</v>
+        <v>2854.26</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3690.290000</v>
+        <v>-3690.29</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>45546.559793</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.651822</v>
+        <v>12.651821999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4264.780000</v>
+        <v>4264.78</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6040.190000</v>
+        <v>-6040.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>45375.614579</v>
+        <v>45375.614579000001</v>
       </c>
       <c r="B3" s="1">
-        <v>12.604337</v>
+        <v>12.604336999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1251.720000</v>
+        <v>1251.72</v>
       </c>
       <c r="D3" s="1">
-        <v>-278.871000</v>
+        <v>-278.87099999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>45385.976005</v>
+        <v>45385.976004999997</v>
       </c>
       <c r="G3" s="1">
-        <v>12.607216</v>
+        <v>12.607215999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.430000</v>
+        <v>1272.43</v>
       </c>
       <c r="I3" s="1">
-        <v>-243.041000</v>
+        <v>-243.041</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>45396.798709</v>
+        <v>45396.798709000002</v>
       </c>
       <c r="L3" s="1">
         <v>12.610222</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.750000</v>
+        <v>1304.75</v>
       </c>
       <c r="N3" s="1">
-        <v>-191.792000</v>
+        <v>-191.792</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>45407.316377</v>
+        <v>45407.316377000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>12.613143</v>
+        <v>12.613143000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.780000</v>
+        <v>1316.78</v>
       </c>
       <c r="S3" s="1">
-        <v>-177.162000</v>
+        <v>-177.16200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>45417.499242</v>
+        <v>45417.499241999998</v>
       </c>
       <c r="V3" s="1">
-        <v>12.615972</v>
+        <v>12.615971999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.730000</v>
+        <v>1330.73</v>
       </c>
       <c r="X3" s="1">
-        <v>-166.542000</v>
+        <v>-166.542</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>45427.939534</v>
+        <v>45427.939533999997</v>
       </c>
       <c r="AA3" s="1">
         <v>12.618872</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.990000</v>
+        <v>1348.99</v>
       </c>
       <c r="AC3" s="1">
-        <v>-166.947000</v>
+        <v>-166.947</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>45438.491919</v>
@@ -828,300 +1244,300 @@
         <v>12.621803</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.610000</v>
+        <v>1362.61</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.578000</v>
+        <v>-177.578</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>45449.254610</v>
+        <v>45449.254610000004</v>
       </c>
       <c r="AK3" s="1">
         <v>12.624793</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.096000</v>
+        <v>-208.096</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>45459.881891</v>
+        <v>45459.881890999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.627745</v>
+        <v>12.627745000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.170000</v>
+        <v>-252.17</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>45470.828596</v>
+        <v>45470.828595999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.630786</v>
+        <v>12.630786000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1430.600000</v>
+        <v>1430.6</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.240000</v>
+        <v>-312.24</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>45481.639397</v>
+        <v>45481.639396999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.633789</v>
       </c>
       <c r="BA3" s="1">
-        <v>1449.940000</v>
+        <v>1449.94</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.397000</v>
+        <v>-364.39699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>45492.256761</v>
+        <v>45492.256760999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.636738</v>
+        <v>12.636737999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1535.420000</v>
+        <v>1535.42</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.576000</v>
+        <v>-612.57600000000002</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>45502.975338</v>
+        <v>45502.975337999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>12.639715</v>
+        <v>12.639715000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1689.680000</v>
+        <v>1689.68</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1057.350000</v>
+        <v>-1057.3499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>45514.177948</v>
+        <v>45514.177947999997</v>
       </c>
       <c r="BO3" s="1">
         <v>12.642827</v>
       </c>
       <c r="BP3" s="1">
-        <v>1983.600000</v>
+        <v>1983.6</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1828.350000</v>
+        <v>-1828.35</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>45525.445565</v>
+        <v>45525.445565000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.645957</v>
+        <v>12.645956999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2369.650000</v>
+        <v>2369.65</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2715.790000</v>
+        <v>-2715.79</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>45536.147773</v>
+        <v>45536.147772999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>12.648930</v>
+        <v>12.64893</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2853.770000</v>
+        <v>2853.77</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3689.850000</v>
+        <v>-3689.85</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>45547.118752</v>
+        <v>45547.118752000002</v>
       </c>
       <c r="CD3" s="1">
         <v>12.651977</v>
       </c>
       <c r="CE3" s="1">
-        <v>4281.080000</v>
+        <v>4281.08</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6034.630000</v>
+        <v>-6034.63</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>45376.295586</v>
       </c>
       <c r="B4" s="1">
-        <v>12.604527</v>
+        <v>12.604526999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1251.350000</v>
+        <v>1251.3499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-278.731000</v>
+        <v>-278.73099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>45386.664453</v>
+        <v>45386.664452999998</v>
       </c>
       <c r="G4" s="1">
         <v>12.607407</v>
       </c>
       <c r="H4" s="1">
-        <v>1272.090000</v>
+        <v>1272.0899999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-243.617000</v>
+        <v>-243.61699999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>45397.143927</v>
+        <v>45397.143926999997</v>
       </c>
       <c r="L4" s="1">
-        <v>12.610318</v>
+        <v>12.610317999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.900000</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-191.891000</v>
+        <v>-191.89099999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>45407.673001</v>
+        <v>45407.673001000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>12.613243</v>
+        <v>12.613243000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.670000</v>
+        <v>1316.67</v>
       </c>
       <c r="S4" s="1">
-        <v>-177.248000</v>
+        <v>-177.24799999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>45417.842970</v>
+        <v>45417.842969999998</v>
       </c>
       <c r="V4" s="1">
-        <v>12.616067</v>
+        <v>12.616066999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.640000</v>
+        <v>1330.64</v>
       </c>
       <c r="X4" s="1">
-        <v>-166.558000</v>
+        <v>-166.55799999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>45428.593292</v>
+        <v>45428.593291999998</v>
       </c>
       <c r="AA4" s="1">
         <v>12.619054</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.170000</v>
+        <v>1349.17</v>
       </c>
       <c r="AC4" s="1">
-        <v>-166.952000</v>
+        <v>-166.952</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>45439.145646</v>
+        <v>45439.145645999997</v>
       </c>
       <c r="AF4" s="1">
         <v>12.621985</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.700000</v>
+        <v>1362.7</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.491000</v>
+        <v>-177.49100000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>45449.631573</v>
+        <v>45449.631572999999</v>
       </c>
       <c r="AK4" s="1">
         <v>12.624898</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.161000</v>
+        <v>-208.161</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>45460.246946</v>
+        <v>45460.246945999999</v>
       </c>
       <c r="AP4" s="1">
         <v>12.627846</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1405.850000</v>
+        <v>1405.85</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.176000</v>
+        <v>-252.17599999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>45471.192701</v>
@@ -1130,103 +1546,103 @@
         <v>12.630887</v>
       </c>
       <c r="AV4" s="1">
-        <v>1430.580000</v>
+        <v>1430.58</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.222000</v>
+        <v>-312.22199999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>45481.998502</v>
+        <v>45481.998502000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>12.633888</v>
+        <v>12.633888000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1449.990000</v>
+        <v>1449.99</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.375000</v>
+        <v>-364.375</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>45492.688322</v>
+        <v>45492.688322000002</v>
       </c>
       <c r="BE4" s="1">
         <v>12.636858</v>
       </c>
       <c r="BF4" s="1">
-        <v>1535.360000</v>
+        <v>1535.36</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.510000</v>
+        <v>-612.51</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>45503.403849</v>
+        <v>45503.403849000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>12.639834</v>
       </c>
       <c r="BK4" s="1">
-        <v>1689.680000</v>
+        <v>1689.68</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1057.360000</v>
+        <v>-1057.3599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>45514.597562</v>
+        <v>45514.597562000003</v>
       </c>
       <c r="BO4" s="1">
         <v>12.642944</v>
       </c>
       <c r="BP4" s="1">
-        <v>1983.620000</v>
+        <v>1983.62</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1828.210000</v>
+        <v>-1828.21</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>45525.860219</v>
+        <v>45525.860219000002</v>
       </c>
       <c r="BT4" s="1">
         <v>12.646072</v>
       </c>
       <c r="BU4" s="1">
-        <v>2369.500000</v>
+        <v>2369.5</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2715.970000</v>
+        <v>-2715.97</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>45536.574301</v>
+        <v>45536.574301000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.649048</v>
+        <v>12.649048000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.230000</v>
+        <v>2853.23</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3690.330000</v>
+        <v>-3690.33</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>45547.658894</v>
@@ -1235,544 +1651,544 @@
         <v>12.652127</v>
       </c>
       <c r="CE4" s="1">
-        <v>4265.050000</v>
+        <v>4265.05</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6024.410000</v>
+        <v>-6024.41</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>45376.642786</v>
+        <v>45376.642785999997</v>
       </c>
       <c r="B5" s="1">
         <v>12.604623</v>
       </c>
       <c r="C5" s="1">
-        <v>1251.420000</v>
+        <v>1251.42</v>
       </c>
       <c r="D5" s="1">
-        <v>-278.898000</v>
+        <v>-278.89800000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>45387.012148</v>
+        <v>45387.012148000002</v>
       </c>
       <c r="G5" s="1">
-        <v>12.607503</v>
+        <v>12.607502999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.800000</v>
+        <v>1272.8</v>
       </c>
       <c r="I5" s="1">
-        <v>-243.079000</v>
+        <v>-243.07900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>45397.491653</v>
+        <v>45397.491652999997</v>
       </c>
       <c r="L5" s="1">
         <v>12.610414</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.760000</v>
+        <v>1304.76</v>
       </c>
       <c r="N5" s="1">
-        <v>-191.910000</v>
+        <v>-191.91</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>45408.020695</v>
+        <v>45408.020694999999</v>
       </c>
       <c r="Q5" s="1">
         <v>12.613339</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.740000</v>
+        <v>1316.74</v>
       </c>
       <c r="S5" s="1">
-        <v>-177.199000</v>
+        <v>-177.19900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>45418.500170</v>
+        <v>45418.500169999999</v>
       </c>
       <c r="V5" s="1">
-        <v>12.616250</v>
+        <v>12.616250000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.610000</v>
+        <v>1330.61</v>
       </c>
       <c r="X5" s="1">
-        <v>-166.600000</v>
+        <v>-166.6</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>45428.983860</v>
+        <v>45428.98386</v>
       </c>
       <c r="AA5" s="1">
-        <v>12.619162</v>
+        <v>12.619161999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.090000</v>
+        <v>1349.09</v>
       </c>
       <c r="AC5" s="1">
-        <v>-166.953000</v>
+        <v>-166.953</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>45439.524589</v>
+        <v>45439.524589000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>12.622090</v>
+        <v>12.62209</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.620000</v>
+        <v>1362.62</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.645000</v>
+        <v>-177.64500000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>45449.972847</v>
+        <v>45449.972846999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.624992</v>
+        <v>12.624992000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.840000</v>
+        <v>1383.84</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.100000</v>
+        <v>-208.1</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>45460.601618</v>
+        <v>45460.601618000001</v>
       </c>
       <c r="AP5" s="1">
         <v>12.627945</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1405.850000</v>
+        <v>1405.85</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.142000</v>
+        <v>-252.142</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>45471.554739</v>
+        <v>45471.554738999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>12.630987</v>
+        <v>12.630986999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1430.590000</v>
+        <v>1430.59</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.254000</v>
+        <v>-312.25400000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>45482.414149</v>
+        <v>45482.414148999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>12.634004</v>
+        <v>12.634003999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1449.960000</v>
+        <v>1449.96</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.375000</v>
+        <v>-364.375</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>45492.980457</v>
+        <v>45492.980456999998</v>
       </c>
       <c r="BE5" s="1">
         <v>12.636939</v>
       </c>
       <c r="BF5" s="1">
-        <v>1535.370000</v>
+        <v>1535.37</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.564000</v>
+        <v>-612.56399999999996</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>45503.723304</v>
+        <v>45503.723303999999</v>
       </c>
       <c r="BJ5" s="1">
         <v>12.639923</v>
       </c>
       <c r="BK5" s="1">
-        <v>1689.610000</v>
+        <v>1689.61</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1057.440000</v>
+        <v>-1057.44</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>45514.996878</v>
+        <v>45514.996877999998</v>
       </c>
       <c r="BO5" s="1">
         <v>12.643055</v>
       </c>
       <c r="BP5" s="1">
-        <v>1983.690000</v>
+        <v>1983.69</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1828.110000</v>
+        <v>-1828.11</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>45526.285291</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.646190</v>
+        <v>12.646190000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2369.070000</v>
+        <v>2369.0700000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2716.230000</v>
+        <v>-2716.23</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>45536.996894</v>
+        <v>45536.996894000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.649166</v>
+        <v>12.649165999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.380000</v>
+        <v>2853.38</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3689.710000</v>
+        <v>-3689.71</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>45548.196590</v>
+        <v>45548.19659</v>
       </c>
       <c r="CD5" s="1">
         <v>12.652277</v>
       </c>
       <c r="CE5" s="1">
-        <v>4273.910000</v>
+        <v>4273.91</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6045.240000</v>
+        <v>-6045.24</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>45376.982544</v>
+        <v>45376.982543999999</v>
       </c>
       <c r="B6" s="1">
-        <v>12.604717</v>
+        <v>12.604717000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1251.380000</v>
+        <v>1251.3800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-278.769000</v>
+        <v>-278.76900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>45387.361332</v>
       </c>
       <c r="G6" s="1">
-        <v>12.607600</v>
+        <v>12.6076</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.180000</v>
+        <v>1273.18</v>
       </c>
       <c r="I6" s="1">
-        <v>-243.278000</v>
+        <v>-243.27799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>45398.143860</v>
+        <v>45398.143859999996</v>
       </c>
       <c r="L6" s="1">
-        <v>12.610596</v>
+        <v>12.610595999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.700000</v>
+        <v>1304.7</v>
       </c>
       <c r="N6" s="1">
-        <v>-191.800000</v>
+        <v>-191.8</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>45408.468104</v>
       </c>
       <c r="Q6" s="1">
-        <v>12.613463</v>
+        <v>12.613462999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.800000</v>
+        <v>1316.8</v>
       </c>
       <c r="S6" s="1">
-        <v>-177.151000</v>
+        <v>-177.15100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>45418.873160</v>
+        <v>45418.873160000003</v>
       </c>
       <c r="V6" s="1">
-        <v>12.616354</v>
+        <v>12.616353999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.590000</v>
+        <v>1330.59</v>
       </c>
       <c r="X6" s="1">
-        <v>-166.851000</v>
+        <v>-166.851</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>45429.333291</v>
+        <v>45429.333291000003</v>
       </c>
       <c r="AA6" s="1">
         <v>12.619259</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.120000</v>
+        <v>1349.12</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.038000</v>
+        <v>-167.03800000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>45439.872816</v>
+        <v>45439.872816000003</v>
       </c>
       <c r="AF6" s="1">
         <v>12.622187</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.510000</v>
+        <v>1362.51</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.529000</v>
+        <v>-177.529</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>45450.332911</v>
+        <v>45450.332910999998</v>
       </c>
       <c r="AK6" s="1">
         <v>12.625092</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.077000</v>
+        <v>-208.077</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>45461.030129</v>
+        <v>45461.030128999999</v>
       </c>
       <c r="AP6" s="1">
         <v>12.628064</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.156000</v>
+        <v>-252.15600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>45471.976872</v>
+        <v>45471.976871999999</v>
       </c>
       <c r="AU6" s="1">
         <v>12.631105</v>
       </c>
       <c r="AV6" s="1">
-        <v>1430.590000</v>
+        <v>1430.59</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.276000</v>
+        <v>-312.27600000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>45482.715252</v>
+        <v>45482.715252000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>12.634088</v>
       </c>
       <c r="BA6" s="1">
-        <v>1449.980000</v>
+        <v>1449.98</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.345000</v>
+        <v>-364.34500000000003</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>45493.337048</v>
+        <v>45493.337048000001</v>
       </c>
       <c r="BE6" s="1">
         <v>12.637038</v>
       </c>
       <c r="BF6" s="1">
-        <v>1535.390000</v>
+        <v>1535.39</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.586000</v>
+        <v>-612.58600000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>45504.098746</v>
+        <v>45504.098746000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.640027</v>
       </c>
       <c r="BK6" s="1">
-        <v>1689.570000</v>
+        <v>1689.57</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1057.350000</v>
+        <v>-1057.3499999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>45515.415482</v>
+        <v>45515.415481999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.643171</v>
+        <v>12.643171000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1983.470000</v>
+        <v>1983.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1828.290000</v>
+        <v>-1828.29</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>45526.706394</v>
+        <v>45526.706394000001</v>
       </c>
       <c r="BT6" s="1">
         <v>12.646307</v>
       </c>
       <c r="BU6" s="1">
-        <v>2368.750000</v>
+        <v>2368.75</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2716.420000</v>
+        <v>-2716.42</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>45537.445772</v>
+        <v>45537.445771999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>12.649290</v>
+        <v>12.649290000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.150000</v>
+        <v>2853.15</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3690.330000</v>
+        <v>-3690.33</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>45548.740669</v>
+        <v>45548.740668999999</v>
       </c>
       <c r="CD6" s="1">
         <v>12.652428</v>
       </c>
       <c r="CE6" s="1">
-        <v>4278.970000</v>
+        <v>4278.97</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6023.520000</v>
+        <v>-6023.52</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>45377.637760</v>
+        <v>45377.637759999998</v>
       </c>
       <c r="B7" s="1">
         <v>12.604899</v>
       </c>
       <c r="C7" s="1">
-        <v>1251.770000</v>
+        <v>1251.77</v>
       </c>
       <c r="D7" s="1">
-        <v>-279.030000</v>
+        <v>-279.02999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>45388.014593</v>
@@ -1781,557 +2197,557 @@
         <v>12.607782</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.590000</v>
+        <v>1272.5899999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-243.011000</v>
+        <v>-243.011</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>45398.522803</v>
       </c>
       <c r="L7" s="1">
-        <v>12.610701</v>
+        <v>12.610701000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.960000</v>
+        <v>1304.96</v>
       </c>
       <c r="N7" s="1">
-        <v>-191.938000</v>
+        <v>-191.93799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>45408.720591</v>
+        <v>45408.720590999998</v>
       </c>
       <c r="Q7" s="1">
         <v>12.613533</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S7" s="1">
-        <v>-177.151000</v>
+        <v>-177.15100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>45419.218376</v>
+        <v>45419.218375999997</v>
       </c>
       <c r="V7" s="1">
-        <v>12.616450</v>
+        <v>12.61645</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.760000</v>
+        <v>1330.76</v>
       </c>
       <c r="X7" s="1">
-        <v>-166.633000</v>
+        <v>-166.63300000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>45429.678507</v>
+        <v>45429.678506999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>12.619355</v>
+        <v>12.619355000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.080000</v>
+        <v>1349.08</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.196000</v>
+        <v>-167.196</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>45440.215517</v>
+        <v>45440.215516999997</v>
       </c>
       <c r="AF7" s="1">
         <v>12.622282</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.600000</v>
+        <v>1362.6</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.484000</v>
+        <v>-177.48400000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>45450.764438</v>
+        <v>45450.764437999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>12.625212</v>
+        <v>12.625211999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.880000</v>
+        <v>1383.88</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.079000</v>
+        <v>-208.07900000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>45461.324753</v>
+        <v>45461.324753000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.628146</v>
+        <v>12.628145999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.145000</v>
+        <v>-252.14500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>45472.285375</v>
+        <v>45472.285374999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>12.631190</v>
+        <v>12.63119</v>
       </c>
       <c r="AV7" s="1">
-        <v>1430.580000</v>
+        <v>1430.58</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.257000</v>
+        <v>-312.25700000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>45483.061441</v>
+        <v>45483.061440999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.634184</v>
+        <v>12.634183999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1449.940000</v>
+        <v>1449.94</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.392000</v>
+        <v>-364.392</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>45493.700614</v>
+        <v>45493.700614000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.637139</v>
+        <v>12.637138999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1535.370000</v>
+        <v>1535.37</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.569000</v>
+        <v>-612.56899999999996</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>45504.500503</v>
+        <v>45504.500503000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.640139</v>
       </c>
       <c r="BK7" s="1">
-        <v>1689.670000</v>
+        <v>1689.67</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1057.340000</v>
+        <v>-1057.3399999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>45516.233864</v>
+        <v>45516.233864000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.643398</v>
+        <v>12.643397999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1983.340000</v>
+        <v>1983.34</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1828.080000</v>
+        <v>-1828.08</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>45527.113609</v>
       </c>
       <c r="BT7" s="1">
-        <v>12.646420</v>
+        <v>12.646420000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2368.020000</v>
+        <v>2368.02</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2716.350000</v>
+        <v>-2716.35</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>45537.876334</v>
       </c>
       <c r="BY7" s="1">
-        <v>12.649410</v>
+        <v>12.64941</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2853.040000</v>
+        <v>2853.04</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3690.000000</v>
+        <v>-3690</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>45549.279820</v>
+        <v>45549.279820000003</v>
       </c>
       <c r="CD7" s="1">
         <v>12.652578</v>
       </c>
       <c r="CE7" s="1">
-        <v>4262.200000</v>
+        <v>4262.2</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6039.530000</v>
+        <v>-6039.53</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>45378.005791</v>
+        <v>45378.005791000003</v>
       </c>
       <c r="B8" s="1">
-        <v>12.605002</v>
+        <v>12.605002000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1251.620000</v>
+        <v>1251.6199999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-279.092000</v>
+        <v>-279.09199999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>45388.395986</v>
+        <v>45388.395986000003</v>
       </c>
       <c r="G8" s="1">
-        <v>12.607888</v>
+        <v>12.607888000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.340000</v>
+        <v>1272.3399999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-243.394000</v>
+        <v>-243.39400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>45398.874963</v>
+        <v>45398.874963000002</v>
       </c>
       <c r="L8" s="1">
         <v>12.610799</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.180000</v>
+        <v>1305.18</v>
       </c>
       <c r="N8" s="1">
-        <v>-191.656000</v>
+        <v>-191.65600000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>45409.069770</v>
+        <v>45409.069770000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.613630</v>
+        <v>12.613630000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S8" s="1">
-        <v>-177.154000</v>
+        <v>-177.154</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>45419.569084</v>
+        <v>45419.569084000002</v>
       </c>
       <c r="V8" s="1">
-        <v>12.616547</v>
+        <v>12.616547000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.540000</v>
+        <v>1330.54</v>
       </c>
       <c r="X8" s="1">
-        <v>-166.624000</v>
+        <v>-166.624</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>45430.100395</v>
+        <v>45430.100395000001</v>
       </c>
       <c r="AA8" s="1">
         <v>12.619472</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.070000</v>
+        <v>1349.07</v>
       </c>
       <c r="AC8" s="1">
-        <v>-166.990000</v>
+        <v>-166.99</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>45440.640588</v>
+        <v>45440.640588000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.622400</v>
+        <v>12.622400000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.660000</v>
+        <v>1362.66</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.622000</v>
+        <v>-177.62200000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>45451.027348</v>
+        <v>45451.027348000003</v>
       </c>
       <c r="AK8" s="1">
         <v>12.625285</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.880000</v>
+        <v>1383.88</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.069000</v>
+        <v>-208.06899999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>45461.684849</v>
+        <v>45461.684848999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.628246</v>
+        <v>12.628246000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1405.820000</v>
+        <v>1405.82</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.184000</v>
+        <v>-252.184</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>45472.649410</v>
+        <v>45472.649409999998</v>
       </c>
       <c r="AU8" s="1">
         <v>12.631292</v>
       </c>
       <c r="AV8" s="1">
-        <v>1430.570000</v>
+        <v>1430.57</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.234000</v>
+        <v>-312.23399999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>45483.434419</v>
+        <v>45483.434418999997</v>
       </c>
       <c r="AZ8" s="1">
         <v>12.634287</v>
       </c>
       <c r="BA8" s="1">
-        <v>1449.960000</v>
+        <v>1449.96</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.341000</v>
+        <v>-364.34100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>45494.422819</v>
+        <v>45494.422818999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>12.637340</v>
+        <v>12.63734</v>
       </c>
       <c r="BF8" s="1">
-        <v>1535.380000</v>
+        <v>1535.38</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.540000</v>
+        <v>-612.54</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>45505.250454</v>
+        <v>45505.250454000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.640347</v>
       </c>
       <c r="BK8" s="1">
-        <v>1689.650000</v>
+        <v>1689.65</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1057.330000</v>
+        <v>-1057.33</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>45516.649017</v>
+        <v>45516.649017000003</v>
       </c>
       <c r="BO8" s="1">
         <v>12.643514</v>
       </c>
       <c r="BP8" s="1">
-        <v>1983.450000</v>
+        <v>1983.45</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1828.330000</v>
+        <v>-1828.33</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>45527.529753</v>
+        <v>45527.529753000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>12.646536</v>
+        <v>12.646535999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2368.010000</v>
+        <v>2368.0100000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2716.840000</v>
+        <v>-2716.84</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>45538.297900</v>
+        <v>45538.297899999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>12.649527</v>
+        <v>12.649527000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2852.450000</v>
+        <v>2852.45</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3690.330000</v>
+        <v>-3690.33</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>45550.132971</v>
+        <v>45550.132970999999</v>
       </c>
       <c r="CD8" s="1">
         <v>12.652815</v>
       </c>
       <c r="CE8" s="1">
-        <v>4270.840000</v>
+        <v>4270.84</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6022.190000</v>
+        <v>-6022.19</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>45378.348559</v>
+        <v>45378.348558999998</v>
       </c>
       <c r="B9" s="1">
-        <v>12.605097</v>
+        <v>12.605097000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1251.210000</v>
+        <v>1251.21</v>
       </c>
       <c r="D9" s="1">
-        <v>-278.955000</v>
+        <v>-278.95499999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>45388.740241</v>
       </c>
       <c r="G9" s="1">
-        <v>12.607983</v>
+        <v>12.607983000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1271.730000</v>
+        <v>1271.73</v>
       </c>
       <c r="I9" s="1">
-        <v>-243.964000</v>
+        <v>-243.964</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>45399.219832</v>
+        <v>45399.219832000002</v>
       </c>
       <c r="L9" s="1">
         <v>12.610894</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.900000</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-191.687000</v>
+        <v>-191.68700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>45409.493349</v>
+        <v>45409.493348999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.613748</v>
+        <v>12.613747999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.790000</v>
+        <v>1316.79</v>
       </c>
       <c r="S9" s="1">
-        <v>-177.374000</v>
+        <v>-177.374</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>45419.991639</v>
@@ -2340,405 +2756,405 @@
         <v>12.616664</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.680000</v>
+        <v>1330.68</v>
       </c>
       <c r="X9" s="1">
-        <v>-166.641000</v>
+        <v>-166.64099999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>45430.383822</v>
+        <v>45430.383822000003</v>
       </c>
       <c r="AA9" s="1">
         <v>12.619551</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.060000</v>
+        <v>1349.06</v>
       </c>
       <c r="AC9" s="1">
-        <v>-166.959000</v>
+        <v>-166.959</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>45440.909927</v>
+        <v>45440.909927000001</v>
       </c>
       <c r="AF9" s="1">
         <v>12.622475</v>
       </c>
       <c r="AG9" s="1">
-        <v>1363.010000</v>
+        <v>1363.01</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.476000</v>
+        <v>-177.476</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>45451.375007</v>
+        <v>45451.375007000002</v>
       </c>
       <c r="AK9" s="1">
         <v>12.625382</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.068000</v>
+        <v>-208.06800000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>45462.047612</v>
+        <v>45462.047612000002</v>
       </c>
       <c r="AP9" s="1">
         <v>12.628347</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.134000</v>
+        <v>-252.13399999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>45473.017938</v>
+        <v>45473.017937999997</v>
       </c>
       <c r="AU9" s="1">
         <v>12.631394</v>
       </c>
       <c r="AV9" s="1">
-        <v>1430.590000</v>
+        <v>1430.59</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.213000</v>
+        <v>-312.21300000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>45484.152627</v>
+        <v>45484.152627000003</v>
       </c>
       <c r="AZ9" s="1">
         <v>12.634487</v>
       </c>
       <c r="BA9" s="1">
-        <v>1449.930000</v>
+        <v>1449.93</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.386000</v>
+        <v>-364.38600000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>45494.808709</v>
+        <v>45494.808708999997</v>
       </c>
       <c r="BE9" s="1">
         <v>12.637447</v>
       </c>
       <c r="BF9" s="1">
-        <v>1535.370000</v>
+        <v>1535.37</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.586000</v>
+        <v>-612.58600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>45505.657702</v>
+        <v>45505.657701999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.640460</v>
+        <v>12.640459999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1689.600000</v>
+        <v>1689.6</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1057.370000</v>
+        <v>-1057.3699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>45517.049288</v>
+        <v>45517.049288000002</v>
       </c>
       <c r="BO9" s="1">
         <v>12.643625</v>
       </c>
       <c r="BP9" s="1">
-        <v>1983.310000</v>
+        <v>1983.31</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1828.200000</v>
+        <v>-1828.2</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>45528.257881</v>
+        <v>45528.257880999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>12.646738</v>
+        <v>12.646737999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2367.780000</v>
+        <v>2367.7800000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2717.080000</v>
+        <v>-2717.08</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>45539.037930</v>
+        <v>45539.037929999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.649733</v>
+        <v>12.649732999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2852.750000</v>
+        <v>2852.75</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3690.880000</v>
+        <v>-3690.88</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>45550.360108</v>
+        <v>45550.360108000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.652878</v>
+        <v>12.652877999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4273.050000</v>
+        <v>4273.05</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6023.540000</v>
+        <v>-6023.54</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>45378.691263</v>
+        <v>45378.691263000001</v>
       </c>
       <c r="B10" s="1">
-        <v>12.605192</v>
+        <v>12.605192000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1251.890000</v>
+        <v>1251.8900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-278.868000</v>
+        <v>-278.86799999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>45389.083936</v>
+        <v>45389.083936000003</v>
       </c>
       <c r="G10" s="1">
         <v>12.608079</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.960000</v>
+        <v>1271.96</v>
       </c>
       <c r="I10" s="1">
-        <v>-243.639000</v>
+        <v>-243.63900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>45399.642770</v>
+        <v>45399.642769999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.611012</v>
+        <v>12.611012000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.690000</v>
+        <v>1304.69</v>
       </c>
       <c r="N10" s="1">
-        <v>-191.898000</v>
+        <v>-191.898</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>45409.768615</v>
+        <v>45409.768615000001</v>
       </c>
       <c r="Q10" s="1">
         <v>12.613825</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.730000</v>
+        <v>1316.73</v>
       </c>
       <c r="S10" s="1">
-        <v>-177.240000</v>
+        <v>-177.24</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>45420.271894</v>
+        <v>45420.271893999998</v>
       </c>
       <c r="V10" s="1">
         <v>12.616742</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.600000</v>
+        <v>1330.6</v>
       </c>
       <c r="X10" s="1">
-        <v>-166.693000</v>
+        <v>-166.69300000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>45430.728041</v>
+        <v>45430.728041000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>12.619647</v>
+        <v>12.619647000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.150000</v>
+        <v>1349.15</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.027000</v>
+        <v>-167.02699999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>45441.255169</v>
+        <v>45441.255168999996</v>
       </c>
       <c r="AF10" s="1">
-        <v>12.622571</v>
+        <v>12.622571000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.780000</v>
+        <v>1362.78</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.625000</v>
+        <v>-177.625</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>45451.724190</v>
+        <v>45451.724190000001</v>
       </c>
       <c r="AK10" s="1">
         <v>12.625479</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.800000</v>
+        <v>1383.8</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.119000</v>
+        <v>-208.119</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>45462.765630</v>
+        <v>45462.765630000002</v>
       </c>
       <c r="AP10" s="1">
         <v>12.628546</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.142000</v>
+        <v>-252.142</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>45473.743628</v>
+        <v>45473.743627999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>12.631595</v>
+        <v>12.631595000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1430.570000</v>
+        <v>1430.57</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.270000</v>
+        <v>-312.27</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>45484.537554</v>
+        <v>45484.537554000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>12.634594</v>
       </c>
       <c r="BA10" s="1">
-        <v>1449.980000</v>
+        <v>1449.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.366000</v>
+        <v>-364.36599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>45495.190628</v>
+        <v>45495.190627999997</v>
       </c>
       <c r="BE10" s="1">
         <v>12.637553</v>
       </c>
       <c r="BF10" s="1">
-        <v>1535.330000</v>
+        <v>1535.33</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.547000</v>
+        <v>-612.54700000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>45506.031654</v>
+        <v>45506.031653999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.640564</v>
+        <v>12.640563999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1689.610000</v>
+        <v>1689.61</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1057.330000</v>
+        <v>-1057.33</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>45517.783862</v>
+        <v>45517.783861999997</v>
       </c>
       <c r="BO10" s="1">
         <v>12.643829</v>
       </c>
       <c r="BP10" s="1">
-        <v>1983.370000</v>
+        <v>1983.37</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1828.030000</v>
+        <v>-1828.03</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>45528.377945</v>
@@ -2747,180 +3163,180 @@
         <v>12.646772</v>
       </c>
       <c r="BU10" s="1">
-        <v>2367.450000</v>
+        <v>2367.4499999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2717.400000</v>
+        <v>-2717.4</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>45539.163418</v>
+        <v>45539.163417999996</v>
       </c>
       <c r="BY10" s="1">
         <v>12.649768</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.050000</v>
+        <v>2853.05</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3690.050000</v>
+        <v>-3690.05</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>45550.879915</v>
+        <v>45550.879914999998</v>
       </c>
       <c r="CD10" s="1">
         <v>12.653022</v>
       </c>
       <c r="CE10" s="1">
-        <v>4260.160000</v>
+        <v>4260.16</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6032.540000</v>
+        <v>-6032.54</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>45379.112399</v>
+        <v>45379.112398999998</v>
       </c>
       <c r="B11" s="1">
         <v>12.605309</v>
       </c>
       <c r="C11" s="1">
-        <v>1251.680000</v>
+        <v>1251.68</v>
       </c>
       <c r="D11" s="1">
-        <v>-279.409000</v>
+        <v>-279.40899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>45389.504048</v>
+        <v>45389.504048000003</v>
       </c>
       <c r="G11" s="1">
         <v>12.608196</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.000000</v>
+        <v>1272</v>
       </c>
       <c r="I11" s="1">
-        <v>-242.405000</v>
+        <v>-242.405</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>45399.924040</v>
+        <v>45399.924039999998</v>
       </c>
       <c r="L11" s="1">
-        <v>12.611090</v>
+        <v>12.611090000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.660000</v>
+        <v>1304.6600000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-191.965000</v>
+        <v>-191.965</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>45410.116327</v>
+        <v>45410.116327000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.613921</v>
+        <v>12.613920999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.730000</v>
+        <v>1316.73</v>
       </c>
       <c r="S11" s="1">
-        <v>-177.286000</v>
+        <v>-177.286</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>45420.615112</v>
+        <v>45420.615111999999</v>
       </c>
       <c r="V11" s="1">
         <v>12.616838</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.740000</v>
+        <v>1330.74</v>
       </c>
       <c r="X11" s="1">
-        <v>-166.634000</v>
+        <v>-166.63399999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>45431.078712</v>
+        <v>45431.078712000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.619744</v>
+        <v>12.619744000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.120000</v>
+        <v>1349.12</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.036000</v>
+        <v>-167.036</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>45441.943578</v>
+        <v>45441.943577999999</v>
       </c>
       <c r="AF11" s="1">
         <v>12.622762</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.560000</v>
+        <v>1362.56</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.479000</v>
+        <v>-177.47900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>45452.421566</v>
+        <v>45452.421565999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>12.625673</v>
+        <v>12.625673000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.830000</v>
+        <v>1383.83</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.114000</v>
+        <v>-208.114</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>45463.125231</v>
+        <v>45463.125230999998</v>
       </c>
       <c r="AP11" s="1">
         <v>12.628646</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1405.810000</v>
+        <v>1405.81</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.146000</v>
+        <v>-252.14599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>45474.130997</v>
@@ -2929,452 +3345,452 @@
         <v>12.631703</v>
       </c>
       <c r="AV11" s="1">
-        <v>1430.590000</v>
+        <v>1430.59</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.244000</v>
+        <v>-312.24400000000003</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>45484.897617</v>
+        <v>45484.897617000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>12.634694</v>
       </c>
       <c r="BA11" s="1">
-        <v>1449.960000</v>
+        <v>1449.96</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.343000</v>
+        <v>-364.34300000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>45495.866147</v>
+        <v>45495.866147000001</v>
       </c>
       <c r="BE11" s="1">
         <v>12.637741</v>
       </c>
       <c r="BF11" s="1">
-        <v>1535.390000</v>
+        <v>1535.39</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.553000</v>
+        <v>-612.553</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>45506.757828</v>
+        <v>45506.757828000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.640766</v>
+        <v>12.640765999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1689.600000</v>
+        <v>1689.6</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1057.310000</v>
+        <v>-1057.31</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>45518.288801</v>
+        <v>45518.288801000002</v>
       </c>
       <c r="BO11" s="1">
         <v>12.643969</v>
       </c>
       <c r="BP11" s="1">
-        <v>1983.440000</v>
+        <v>1983.44</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1827.970000</v>
+        <v>-1827.97</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>45528.798520</v>
+        <v>45528.798519999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>12.646888</v>
+        <v>12.646888000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2367.410000</v>
+        <v>2367.41</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2718.050000</v>
+        <v>-2718.05</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>45539.592457</v>
+        <v>45539.592456999999</v>
       </c>
       <c r="BY11" s="1">
         <v>12.649887</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2853.200000</v>
+        <v>2853.2</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3690.280000</v>
+        <v>-3690.28</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>45551.396772</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.653166</v>
+        <v>12.653166000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4263.440000</v>
+        <v>4263.4399999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6024.000000</v>
+        <v>-6024</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>45379.393101</v>
+        <v>45379.393101000001</v>
       </c>
       <c r="B12" s="1">
         <v>12.605387</v>
       </c>
       <c r="C12" s="1">
-        <v>1251.180000</v>
+        <v>1251.18</v>
       </c>
       <c r="D12" s="1">
-        <v>-279.170000</v>
+        <v>-279.17</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>45389.778337</v>
+        <v>45389.778337000003</v>
       </c>
       <c r="G12" s="1">
-        <v>12.608272</v>
+        <v>12.608271999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.070000</v>
+        <v>1272.07</v>
       </c>
       <c r="I12" s="1">
-        <v>-242.280000</v>
+        <v>-242.28</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>45400.265777</v>
+        <v>45400.265777000001</v>
       </c>
       <c r="L12" s="1">
-        <v>12.611185</v>
+        <v>12.611185000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="N12" s="1">
-        <v>-191.849000</v>
+        <v>-191.84899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>45410.467960</v>
+        <v>45410.467960000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.614019</v>
+        <v>12.614019000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.710000</v>
+        <v>1316.71</v>
       </c>
       <c r="S12" s="1">
-        <v>-177.176000</v>
+        <v>-177.17599999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>45420.957382</v>
+        <v>45420.957382000001</v>
       </c>
       <c r="V12" s="1">
         <v>12.616933</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.620000</v>
+        <v>1330.62</v>
       </c>
       <c r="X12" s="1">
-        <v>-166.569000</v>
+        <v>-166.56899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>45431.773608</v>
+        <v>45431.773608000003</v>
       </c>
       <c r="AA12" s="1">
         <v>12.619937</v>
       </c>
       <c r="AB12" s="1">
-        <v>1348.820000</v>
+        <v>1348.82</v>
       </c>
       <c r="AC12" s="1">
-        <v>-166.917000</v>
+        <v>-166.917</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>45442.285323</v>
+        <v>45442.285322999996</v>
       </c>
       <c r="AF12" s="1">
         <v>12.622857</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.750000</v>
+        <v>1362.75</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.719000</v>
+        <v>-177.71899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>45452.770748</v>
+        <v>45452.770748000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.625770</v>
+        <v>12.625769999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.086000</v>
+        <v>-208.08600000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>45463.485823</v>
+        <v>45463.485823000003</v>
       </c>
       <c r="AP12" s="1">
         <v>12.628746</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.157000</v>
+        <v>-252.15700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>45474.803071</v>
+        <v>45474.803071000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.631890</v>
+        <v>12.63189</v>
       </c>
       <c r="AV12" s="1">
-        <v>1430.600000</v>
+        <v>1430.6</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.206000</v>
+        <v>-312.20600000000002</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>45485.570192</v>
+        <v>45485.570191999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.634881</v>
       </c>
       <c r="BA12" s="1">
-        <v>1449.960000</v>
+        <v>1449.96</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.340000</v>
+        <v>-364.34</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>45496.271888</v>
+        <v>45496.271888000003</v>
       </c>
       <c r="BE12" s="1">
         <v>12.637853</v>
       </c>
       <c r="BF12" s="1">
-        <v>1535.380000</v>
+        <v>1535.38</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.590000</v>
+        <v>-612.59</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>45507.186836</v>
+        <v>45507.186836000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>12.640885</v>
+        <v>12.640885000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1689.570000</v>
+        <v>1689.57</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1057.300000</v>
+        <v>-1057.3</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>45518.709199</v>
+        <v>45518.709198999997</v>
       </c>
       <c r="BO12" s="1">
         <v>12.644086</v>
       </c>
       <c r="BP12" s="1">
-        <v>1983.440000</v>
+        <v>1983.44</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1827.880000</v>
+        <v>-1827.88</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>45529.224091</v>
+        <v>45529.224090999996</v>
       </c>
       <c r="BT12" s="1">
         <v>12.647007</v>
       </c>
       <c r="BU12" s="1">
-        <v>2367.470000</v>
+        <v>2367.4699999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2718.350000</v>
+        <v>-2718.35</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>45540.174761</v>
+        <v>45540.174761000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.650049</v>
+        <v>12.650048999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2852.930000</v>
+        <v>2852.93</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3689.650000</v>
+        <v>-3689.65</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>45551.945817</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.653318</v>
+        <v>12.653318000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4271.850000</v>
+        <v>4271.8500000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6023.360000</v>
+        <v>-6023.36</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>45379.734846</v>
+        <v>45379.734845999999</v>
       </c>
       <c r="B13" s="1">
         <v>12.605482</v>
       </c>
       <c r="C13" s="1">
-        <v>1251.390000</v>
+        <v>1251.3900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-278.786000</v>
+        <v>-278.786</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>45390.113136</v>
       </c>
       <c r="G13" s="1">
-        <v>12.608365</v>
+        <v>12.608364999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1271.790000</v>
+        <v>1271.79</v>
       </c>
       <c r="I13" s="1">
-        <v>-243.935000</v>
+        <v>-243.935</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>45400.612946</v>
+        <v>45400.612946000001</v>
       </c>
       <c r="L13" s="1">
         <v>12.611281</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.760000</v>
+        <v>1304.76</v>
       </c>
       <c r="N13" s="1">
-        <v>-191.874000</v>
+        <v>-191.874</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>45411.164339</v>
+        <v>45411.164339000003</v>
       </c>
       <c r="Q13" s="1">
         <v>12.614212</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.780000</v>
+        <v>1316.78</v>
       </c>
       <c r="S13" s="1">
-        <v>-177.216000</v>
+        <v>-177.21600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>45421.644805</v>
+        <v>45421.644805000004</v>
       </c>
       <c r="V13" s="1">
         <v>12.617124</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.700000</v>
+        <v>1330.7</v>
       </c>
       <c r="X13" s="1">
-        <v>-166.474000</v>
+        <v>-166.47399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>45432.123819</v>
@@ -3383,1283 +3799,1283 @@
         <v>12.620034</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.180000</v>
+        <v>1349.18</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.043000</v>
+        <v>-167.04300000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>45442.628090</v>
+        <v>45442.628089999998</v>
       </c>
       <c r="AF13" s="1">
         <v>12.622952</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.447000</v>
+        <v>-177.447</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>45453.122413</v>
+        <v>45453.122412999997</v>
       </c>
       <c r="AK13" s="1">
         <v>12.625867</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.092000</v>
+        <v>-208.09200000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>45464.159390</v>
+        <v>45464.159390000001</v>
       </c>
       <c r="AP13" s="1">
         <v>12.628933</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1405.780000</v>
+        <v>1405.78</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.158000</v>
+        <v>-252.15799999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>45475.259358</v>
+        <v>45475.259358000003</v>
       </c>
       <c r="AU13" s="1">
         <v>12.632016</v>
       </c>
       <c r="AV13" s="1">
-        <v>1430.550000</v>
+        <v>1430.55</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.246000</v>
+        <v>-312.24599999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>45486.007168</v>
+        <v>45486.007167999996</v>
       </c>
       <c r="AZ13" s="1">
         <v>12.635002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1449.930000</v>
+        <v>1449.93</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.370000</v>
+        <v>-364.37</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>45496.664707</v>
+        <v>45496.664707000004</v>
       </c>
       <c r="BE13" s="1">
         <v>12.637962</v>
       </c>
       <c r="BF13" s="1">
-        <v>1535.360000</v>
+        <v>1535.36</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.570000</v>
+        <v>-612.57000000000005</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>45507.578181</v>
+        <v>45507.578180999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.640994</v>
+        <v>12.640993999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1689.600000</v>
+        <v>1689.6</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1057.330000</v>
+        <v>-1057.33</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>45519.102229</v>
+        <v>45519.102228999996</v>
       </c>
       <c r="BO13" s="1">
         <v>12.644195</v>
       </c>
       <c r="BP13" s="1">
-        <v>1983.180000</v>
+        <v>1983.18</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1828.070000</v>
+        <v>-1828.07</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>45529.648663</v>
       </c>
       <c r="BT13" s="1">
-        <v>12.647125</v>
+        <v>12.647125000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.430000</v>
+        <v>2367.4299999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2718.460000</v>
+        <v>-2718.46</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>45540.476824</v>
+        <v>45540.476823999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.650132</v>
+        <v>12.650131999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2853.520000</v>
+        <v>2853.52</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3689.810000</v>
+        <v>-3689.81</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>45552.478520</v>
+        <v>45552.478519999997</v>
       </c>
       <c r="CD13" s="1">
         <v>12.653466</v>
       </c>
       <c r="CE13" s="1">
-        <v>4260.410000</v>
+        <v>4260.41</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6033.100000</v>
+        <v>-6033.1</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>45380.071629</v>
+        <v>45380.071628999998</v>
       </c>
       <c r="B14" s="1">
         <v>12.605575</v>
       </c>
       <c r="C14" s="1">
-        <v>1251.550000</v>
+        <v>1251.55</v>
       </c>
       <c r="D14" s="1">
-        <v>-278.976000</v>
+        <v>-278.976</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>45390.440990</v>
+        <v>45390.440990000003</v>
       </c>
       <c r="G14" s="1">
         <v>12.608456</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.550000</v>
+        <v>1272.55</v>
       </c>
       <c r="I14" s="1">
-        <v>-243.917000</v>
+        <v>-243.917</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>45401.304864</v>
+        <v>45401.304863999998</v>
       </c>
       <c r="L14" s="1">
-        <v>12.611474</v>
+        <v>12.611473999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.760000</v>
+        <v>1304.76</v>
       </c>
       <c r="N14" s="1">
-        <v>-191.813000</v>
+        <v>-191.81299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>45411.508564</v>
+        <v>45411.508564000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>12.614308</v>
+        <v>12.614307999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.850000</v>
+        <v>1316.85</v>
       </c>
       <c r="S14" s="1">
-        <v>-177.238000</v>
+        <v>-177.238</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>45421.987046</v>
+        <v>45421.987046000002</v>
       </c>
       <c r="V14" s="1">
         <v>12.617219</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.630000</v>
+        <v>1330.63</v>
       </c>
       <c r="X14" s="1">
-        <v>-166.680000</v>
+        <v>-166.68</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>45432.472506</v>
+        <v>45432.472505999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>12.620131</v>
+        <v>12.620131000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.100000</v>
+        <v>1349.1</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.030000</v>
+        <v>-167.03</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>45443.283272</v>
+        <v>45443.283272000001</v>
       </c>
       <c r="AF14" s="1">
         <v>12.623134</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.680000</v>
+        <v>1362.68</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.436000</v>
+        <v>-177.43600000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>45453.786554</v>
+        <v>45453.786553999998</v>
       </c>
       <c r="AK14" s="1">
         <v>12.626052</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.070000</v>
+        <v>-208.07</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>45464.585485</v>
+        <v>45464.585485000003</v>
       </c>
       <c r="AP14" s="1">
         <v>12.629052</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.146000</v>
+        <v>-252.14599999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>45475.628383</v>
+        <v>45475.628383000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>12.632119</v>
+        <v>12.632118999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1430.550000</v>
+        <v>1430.55</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.243000</v>
+        <v>-312.24299999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>45486.368287</v>
+        <v>45486.368286999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.635102</v>
       </c>
       <c r="BA14" s="1">
-        <v>1449.950000</v>
+        <v>1449.95</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.368000</v>
+        <v>-364.36799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>45497.022844</v>
+        <v>45497.022843999999</v>
       </c>
       <c r="BE14" s="1">
         <v>12.638062</v>
       </c>
       <c r="BF14" s="1">
-        <v>1535.330000</v>
+        <v>1535.33</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.517000</v>
+        <v>-612.51700000000005</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>45507.997813</v>
+        <v>45507.997813000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>12.641111</v>
       </c>
       <c r="BK14" s="1">
-        <v>1689.530000</v>
+        <v>1689.53</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1057.330000</v>
+        <v>-1057.33</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>45519.526805</v>
+        <v>45519.526805000001</v>
       </c>
       <c r="BO14" s="1">
         <v>12.644313</v>
       </c>
       <c r="BP14" s="1">
-        <v>1983.300000</v>
+        <v>1983.3</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1828.090000</v>
+        <v>-1828.09</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>45530.066821</v>
       </c>
       <c r="BT14" s="1">
-        <v>12.647241</v>
+        <v>12.647240999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2367.280000</v>
+        <v>2367.2800000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2718.780000</v>
+        <v>-2718.78</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>45540.898952</v>
+        <v>45540.898952000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>12.650250</v>
+        <v>12.65025</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3689.320000</v>
+        <v>-3689.32</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>45552.996841</v>
       </c>
       <c r="CD14" s="1">
-        <v>12.653610</v>
+        <v>12.65361</v>
       </c>
       <c r="CE14" s="1">
-        <v>4272.480000</v>
+        <v>4272.4799999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6044.870000</v>
+        <v>-6044.87</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>45380.757595</v>
+        <v>45380.757595000003</v>
       </c>
       <c r="B15" s="1">
-        <v>12.605766</v>
+        <v>12.605765999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1251.360000</v>
+        <v>1251.3599999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-278.969000</v>
+        <v>-278.96899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>45391.153836</v>
+        <v>45391.153835999998</v>
       </c>
       <c r="G15" s="1">
         <v>12.608654</v>
       </c>
       <c r="H15" s="1">
-        <v>1272.230000</v>
+        <v>1272.23</v>
       </c>
       <c r="I15" s="1">
-        <v>-243.304000</v>
+        <v>-243.304</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>45401.656063</v>
+        <v>45401.656063000002</v>
       </c>
       <c r="L15" s="1">
         <v>12.611571</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="N15" s="1">
-        <v>-191.752000</v>
+        <v>-191.75200000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>45411.860258</v>
+        <v>45411.860258000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>12.614406</v>
+        <v>12.614406000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.760000</v>
+        <v>1316.76</v>
       </c>
       <c r="S15" s="1">
-        <v>-177.273000</v>
+        <v>-177.273</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>45422.331300</v>
+        <v>45422.331299999998</v>
       </c>
       <c r="V15" s="1">
         <v>12.617314</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.710000</v>
+        <v>1330.71</v>
       </c>
       <c r="X15" s="1">
-        <v>-166.824000</v>
+        <v>-166.82400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>45433.137606</v>
+        <v>45433.137605999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.620316</v>
+        <v>12.620316000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.000000</v>
+        <v>1349</v>
       </c>
       <c r="AC15" s="1">
-        <v>-166.973000</v>
+        <v>-166.97300000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>45443.657257</v>
+        <v>45443.657256999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.623238</v>
+        <v>12.623238000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.830000</v>
+        <v>1362.83</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.570000</v>
+        <v>-177.57</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>45454.164024</v>
+        <v>45454.164023999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.626157</v>
+        <v>12.626156999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.071000</v>
+        <v>-208.071</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>45464.944060</v>
+        <v>45464.944060000002</v>
       </c>
       <c r="AP15" s="1">
         <v>12.629151</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.152000</v>
+        <v>-252.15199999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>45475.988975</v>
       </c>
       <c r="AU15" s="1">
-        <v>12.632219</v>
+        <v>12.632218999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1430.550000</v>
+        <v>1430.55</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.211000</v>
+        <v>-312.21100000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>45486.720911</v>
+        <v>45486.720910999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>12.635200</v>
+        <v>12.635199999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1449.950000</v>
+        <v>1449.95</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.319000</v>
+        <v>-364.31900000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>45497.450404</v>
+        <v>45497.450404000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>12.638181</v>
+        <v>12.638180999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1535.360000</v>
+        <v>1535.36</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.525000</v>
+        <v>-612.52499999999998</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>45508.328626</v>
+        <v>45508.328626000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>12.641202</v>
       </c>
       <c r="BK15" s="1">
-        <v>1689.610000</v>
+        <v>1689.61</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1057.270000</v>
+        <v>-1057.27</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>45519.923107</v>
+        <v>45519.923107000002</v>
       </c>
       <c r="BO15" s="1">
         <v>12.644423</v>
       </c>
       <c r="BP15" s="1">
-        <v>1983.360000</v>
+        <v>1983.36</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1828.040000</v>
+        <v>-1828.04</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>45530.495373</v>
+        <v>45530.495372999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>12.647360</v>
+        <v>12.647360000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2367.670000</v>
+        <v>2367.67</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2719.210000</v>
+        <v>-2719.21</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>45541.320520</v>
+        <v>45541.320520000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.650367</v>
+        <v>12.650366999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.390000</v>
+        <v>2852.39</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3689.890000</v>
+        <v>-3689.89</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>45553.514204</v>
+        <v>45553.514203999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>12.653754</v>
+        <v>12.653753999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4284.140000</v>
+        <v>4284.1400000000003</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6031.150000</v>
+        <v>-6031.15</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>45381.100827</v>
+        <v>45381.100827000002</v>
       </c>
       <c r="B16" s="1">
-        <v>12.605861</v>
+        <v>12.605861000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-278.772000</v>
+        <v>-278.77199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>45391.497470</v>
+        <v>45391.497470000002</v>
       </c>
       <c r="G16" s="1">
         <v>12.608749</v>
       </c>
       <c r="H16" s="1">
-        <v>1271.330000</v>
+        <v>1271.33</v>
       </c>
       <c r="I16" s="1">
-        <v>-243.559000</v>
+        <v>-243.559</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>45402.000751</v>
       </c>
       <c r="L16" s="1">
-        <v>12.611667</v>
+        <v>12.611667000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.550000</v>
+        <v>1304.55</v>
       </c>
       <c r="N16" s="1">
-        <v>-191.769000</v>
+        <v>-191.76900000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>45412.514972</v>
+        <v>45412.514971999997</v>
       </c>
       <c r="Q16" s="1">
         <v>12.614587</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.680000</v>
+        <v>1316.68</v>
       </c>
       <c r="S16" s="1">
-        <v>-177.257000</v>
+        <v>-177.25700000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45422.977556</v>
+        <v>45422.977555999998</v>
       </c>
       <c r="V16" s="1">
-        <v>12.617494</v>
+        <v>12.617494000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X16" s="1">
-        <v>-166.608000</v>
+        <v>-166.608</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>45433.520023</v>
+        <v>45433.520022999997</v>
       </c>
       <c r="AA16" s="1">
         <v>12.620422</v>
       </c>
       <c r="AB16" s="1">
-        <v>1348.990000</v>
+        <v>1348.99</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.041000</v>
+        <v>-167.041</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>45444.002969</v>
+        <v>45444.002969000001</v>
       </c>
       <c r="AF16" s="1">
         <v>12.623334</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.520000</v>
+        <v>1362.52</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.753000</v>
+        <v>-177.75299999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>45454.511245</v>
+        <v>45454.511245000002</v>
       </c>
       <c r="AK16" s="1">
         <v>12.626253</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.069000</v>
+        <v>-208.06899999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>45465.306139</v>
       </c>
       <c r="AP16" s="1">
-        <v>12.629252</v>
+        <v>12.629251999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.121000</v>
+        <v>-252.12100000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>45476.429563</v>
+        <v>45476.429562999998</v>
       </c>
       <c r="AU16" s="1">
         <v>12.632342</v>
       </c>
       <c r="AV16" s="1">
-        <v>1430.540000</v>
+        <v>1430.54</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.240000</v>
+        <v>-312.24</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>45487.142511</v>
+        <v>45487.142510999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>12.635317</v>
+        <v>12.635317000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1449.930000</v>
+        <v>1449.93</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.379000</v>
+        <v>-364.37900000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>45497.746516</v>
+        <v>45497.746515999999</v>
       </c>
       <c r="BE16" s="1">
         <v>12.638263</v>
       </c>
       <c r="BF16" s="1">
-        <v>1535.390000</v>
+        <v>1535.39</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.541000</v>
+        <v>-612.54100000000005</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>45508.703602</v>
+        <v>45508.703602000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>12.641307</v>
+        <v>12.641306999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1689.550000</v>
+        <v>1689.55</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1057.270000</v>
+        <v>-1057.27</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>45520.343747</v>
+        <v>45520.343746999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.644540</v>
+        <v>12.644539999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1983.240000</v>
+        <v>1983.24</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1827.910000</v>
+        <v>-1827.91</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>45530.906544</v>
+        <v>45530.906543999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>12.647474</v>
+        <v>12.647474000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2367.760000</v>
+        <v>2367.7600000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2719.360000</v>
+        <v>-2719.36</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>45541.766955</v>
+        <v>45541.766954999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>12.650491</v>
+        <v>12.650491000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.210000</v>
+        <v>2853.21</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3689.540000</v>
+        <v>-3689.54</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>45554.031495</v>
+        <v>45554.031495000003</v>
       </c>
       <c r="CD16" s="1">
         <v>12.653898</v>
       </c>
       <c r="CE16" s="1">
-        <v>4282.030000</v>
+        <v>4282.03</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6035.690000</v>
+        <v>-6035.69</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>45381.442108</v>
+        <v>45381.442108000003</v>
       </c>
       <c r="B17" s="1">
-        <v>12.605956</v>
+        <v>12.605956000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1251.650000</v>
+        <v>1251.6500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-278.914000</v>
+        <v>-278.91399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>45392.154173</v>
+        <v>45392.154173000003</v>
       </c>
       <c r="G17" s="1">
-        <v>12.608932</v>
+        <v>12.608931999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.840000</v>
+        <v>1271.8399999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-243.705000</v>
+        <v>-243.70500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>45402.649022</v>
+        <v>45402.649021999998</v>
       </c>
       <c r="L17" s="1">
-        <v>12.611847</v>
+        <v>12.611846999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.970000</v>
+        <v>1304.97</v>
       </c>
       <c r="N17" s="1">
-        <v>-191.872000</v>
+        <v>-191.87200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>45412.906784</v>
+        <v>45412.906783999999</v>
       </c>
       <c r="Q17" s="1">
         <v>12.614696</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.740000</v>
+        <v>1316.74</v>
       </c>
       <c r="S17" s="1">
-        <v>-177.302000</v>
+        <v>-177.30199999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>45423.364931</v>
+        <v>45423.364930999996</v>
       </c>
       <c r="V17" s="1">
-        <v>12.617601</v>
+        <v>12.617601000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.660000</v>
+        <v>1330.66</v>
       </c>
       <c r="X17" s="1">
-        <v>-166.804000</v>
+        <v>-166.804</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>45433.866749</v>
+        <v>45433.866749000001</v>
       </c>
       <c r="AA17" s="1">
         <v>12.620519</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.070000</v>
+        <v>1349.07</v>
       </c>
       <c r="AC17" s="1">
-        <v>-166.933000</v>
+        <v>-166.93299999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>45444.345207</v>
+        <v>45444.345206999998</v>
       </c>
       <c r="AF17" s="1">
         <v>12.623429</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.660000</v>
+        <v>1362.66</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.534000</v>
+        <v>-177.53399999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>45454.860889</v>
+        <v>45454.860889000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.626350</v>
+        <v>12.62635</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.880000</v>
+        <v>1383.88</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.066000</v>
+        <v>-208.066</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>45465.720795</v>
+        <v>45465.720795000001</v>
       </c>
       <c r="AP17" s="1">
         <v>12.629367</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1405.820000</v>
+        <v>1405.82</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.125000</v>
+        <v>-252.125</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>45476.721564</v>
+        <v>45476.721563999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>12.632423</v>
+        <v>12.632422999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1430.530000</v>
+        <v>1430.53</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.202000</v>
+        <v>-312.202</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>45487.441102</v>
+        <v>45487.441101999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>12.635400</v>
+        <v>12.635400000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1449.950000</v>
+        <v>1449.95</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.318000</v>
+        <v>-364.31799999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>45498.107072</v>
+        <v>45498.107071999999</v>
       </c>
       <c r="BE17" s="1">
         <v>12.638363</v>
       </c>
       <c r="BF17" s="1">
-        <v>1535.370000</v>
+        <v>1535.37</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.500000</v>
+        <v>-612.5</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>45509.086049</v>
+        <v>45509.086048999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.641413</v>
       </c>
       <c r="BK17" s="1">
-        <v>1689.490000</v>
+        <v>1689.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1057.250000</v>
+        <v>-1057.25</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>45520.740514</v>
+        <v>45520.740513999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.644650</v>
+        <v>12.64465</v>
       </c>
       <c r="BP17" s="1">
-        <v>1983.290000</v>
+        <v>1983.29</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1827.990000</v>
+        <v>-1827.99</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>45531.336549</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.647593</v>
+        <v>12.647593000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2367.990000</v>
+        <v>2367.9899999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2719.670000</v>
+        <v>-2719.67</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>45542.201414</v>
+        <v>45542.201414000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.650612</v>
+        <v>12.650612000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2852.950000</v>
+        <v>2852.95</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3688.990000</v>
+        <v>-3688.99</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>45554.583543</v>
+        <v>45554.583543000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.654051</v>
+        <v>12.654051000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4275.220000</v>
+        <v>4275.22</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6043.130000</v>
+        <v>-6043.13</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>45382.108699</v>
+        <v>45382.108698999997</v>
       </c>
       <c r="B18" s="1">
-        <v>12.606141</v>
+        <v>12.606140999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1251.280000</v>
+        <v>1251.28</v>
       </c>
       <c r="D18" s="1">
-        <v>-279.202000</v>
+        <v>-279.202</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>45392.532124</v>
+        <v>45392.532123999998</v>
       </c>
       <c r="G18" s="1">
-        <v>12.609037</v>
+        <v>12.609037000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1271.900000</v>
+        <v>1271.9000000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-243.128000</v>
+        <v>-243.12799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>45403.036239</v>
+        <v>45403.036239000001</v>
       </c>
       <c r="L18" s="1">
         <v>12.611955</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.630000</v>
+        <v>1304.6300000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-191.835000</v>
+        <v>-191.83500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>45413.258944</v>
+        <v>45413.258944000001</v>
       </c>
       <c r="Q18" s="1">
         <v>12.614794</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S18" s="1">
-        <v>-177.212000</v>
+        <v>-177.21199999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>45423.706674</v>
+        <v>45423.706674000001</v>
       </c>
       <c r="V18" s="1">
         <v>12.617696</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.600000</v>
+        <v>1330.6</v>
       </c>
       <c r="X18" s="1">
-        <v>-166.853000</v>
+        <v>-166.85300000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>45434.216902</v>
@@ -4668,88 +5084,88 @@
         <v>12.620616</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.090000</v>
+        <v>1349.09</v>
       </c>
       <c r="AC18" s="1">
-        <v>-166.967000</v>
+        <v>-166.96700000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>45444.759864</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.623544</v>
+        <v>12.623544000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.527000</v>
+        <v>-177.52699999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>45455.287946</v>
+        <v>45455.287945999997</v>
       </c>
       <c r="AK18" s="1">
         <v>12.626469</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.087000</v>
+        <v>-208.08699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>45466.027853</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.629452</v>
+        <v>12.629452000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.138000</v>
+        <v>-252.13800000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>45477.086123</v>
+        <v>45477.086123000001</v>
       </c>
       <c r="AU18" s="1">
         <v>12.632524</v>
       </c>
       <c r="AV18" s="1">
-        <v>1430.510000</v>
+        <v>1430.51</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.220000</v>
+        <v>-312.22000000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>45487.800206</v>
       </c>
       <c r="AZ18" s="1">
-        <v>12.635500</v>
+        <v>12.6355</v>
       </c>
       <c r="BA18" s="1">
-        <v>1449.970000</v>
+        <v>1449.97</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.376000</v>
+        <v>-364.37599999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>45498.468191</v>
@@ -4758,180 +5174,180 @@
         <v>12.638463</v>
       </c>
       <c r="BF18" s="1">
-        <v>1535.320000</v>
+        <v>1535.32</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.541000</v>
+        <v>-612.54100000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>45509.850354</v>
+        <v>45509.850354000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.641625</v>
+        <v>12.641624999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1689.540000</v>
+        <v>1689.54</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1057.240000</v>
+        <v>-1057.24</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>45521.168596</v>
+        <v>45521.168596000003</v>
       </c>
       <c r="BO18" s="1">
         <v>12.644769</v>
       </c>
       <c r="BP18" s="1">
-        <v>1983.360000</v>
+        <v>1983.36</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1828.040000</v>
+        <v>-1828.04</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>45531.757158</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.647710</v>
+        <v>12.64771</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.030000</v>
+        <v>2368.0300000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2719.840000</v>
+        <v>-2719.84</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>45542.621557</v>
+        <v>45542.621556999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.650728</v>
+        <v>12.650728000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2852.680000</v>
+        <v>2852.68</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3689.730000</v>
+        <v>-3689.73</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>45555.113268</v>
+        <v>45555.113268000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>12.654198</v>
+        <v>12.654197999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4283.060000</v>
+        <v>4283.0600000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6027.370000</v>
+        <v>-6027.37</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>45382.466314</v>
+        <v>45382.466313999998</v>
       </c>
       <c r="B19" s="1">
-        <v>12.606241</v>
+        <v>12.606241000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1251.520000</v>
+        <v>1251.52</v>
       </c>
       <c r="D19" s="1">
-        <v>-278.687000</v>
+        <v>-278.68700000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>45392.875355</v>
+        <v>45392.875354999996</v>
       </c>
       <c r="G19" s="1">
-        <v>12.609132</v>
+        <v>12.609132000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1271.350000</v>
+        <v>1271.3499999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-243.236000</v>
+        <v>-243.23599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>45403.379133</v>
+        <v>45403.379133000002</v>
       </c>
       <c r="L19" s="1">
-        <v>12.612050</v>
+        <v>12.61205</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.950000</v>
+        <v>1304.95</v>
       </c>
       <c r="N19" s="1">
-        <v>-191.936000</v>
+        <v>-191.93600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>45413.600688</v>
+        <v>45413.600687999999</v>
       </c>
       <c r="Q19" s="1">
         <v>12.614889</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S19" s="1">
-        <v>-177.201000</v>
+        <v>-177.20099999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>45424.055858</v>
       </c>
       <c r="V19" s="1">
-        <v>12.617793</v>
+        <v>12.617793000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.740000</v>
+        <v>1330.74</v>
       </c>
       <c r="X19" s="1">
-        <v>-166.719000</v>
+        <v>-166.71899999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>45434.644949</v>
+        <v>45434.644949000001</v>
       </c>
       <c r="AA19" s="1">
         <v>12.620735</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.300000</v>
+        <v>1349.3</v>
       </c>
       <c r="AC19" s="1">
-        <v>-166.748000</v>
+        <v>-166.74799999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>45445.034152</v>
@@ -4940,43 +5356,43 @@
         <v>12.623621</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.890000</v>
+        <v>1362.89</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.404000</v>
+        <v>-177.404</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>45455.569704</v>
+        <v>45455.569704000001</v>
       </c>
       <c r="AK19" s="1">
         <v>12.626547</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.880000</v>
+        <v>1383.88</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.056000</v>
+        <v>-208.05600000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>45466.387418</v>
+        <v>45466.387417999998</v>
       </c>
       <c r="AP19" s="1">
         <v>12.629552</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1405.850000</v>
+        <v>1405.85</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.144000</v>
+        <v>-252.14400000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>45477.446719</v>
@@ -4985,330 +5401,330 @@
         <v>12.632624</v>
       </c>
       <c r="AV19" s="1">
-        <v>1430.540000</v>
+        <v>1430.54</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.200000</v>
+        <v>-312.2</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>45488.158350</v>
+        <v>45488.158349999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>12.635600</v>
+        <v>12.6356</v>
       </c>
       <c r="BA19" s="1">
-        <v>1449.970000</v>
+        <v>1449.97</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.296000</v>
+        <v>-364.29599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>45499.190830</v>
+        <v>45499.19083</v>
       </c>
       <c r="BE19" s="1">
         <v>12.638664</v>
       </c>
       <c r="BF19" s="1">
-        <v>1535.370000</v>
+        <v>1535.37</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.507000</v>
+        <v>-612.50699999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>45510.226816</v>
+        <v>45510.226816000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.641730</v>
+        <v>12.641730000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1689.560000</v>
+        <v>1689.56</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1057.350000</v>
+        <v>-1057.3499999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>45521.555441</v>
+        <v>45521.555440999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.644877</v>
+        <v>12.644876999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1983.330000</v>
+        <v>1983.33</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1828.020000</v>
+        <v>-1828.02</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>45532.179779</v>
+        <v>45532.179778999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.647828</v>
+        <v>12.647828000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.450000</v>
+        <v>2368.4499999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2719.800000</v>
+        <v>-2719.8</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>45543.353124</v>
+        <v>45543.353124000001</v>
       </c>
       <c r="BY19" s="1">
         <v>12.650931</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2853.260000</v>
+        <v>2853.26</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3689.610000</v>
+        <v>-3689.61</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>45555.981267</v>
+        <v>45555.981267000003</v>
       </c>
       <c r="CD19" s="1">
         <v>12.654439</v>
       </c>
       <c r="CE19" s="1">
-        <v>4265.950000</v>
+        <v>4265.95</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6021.090000</v>
+        <v>-6021.09</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>45382.810568</v>
+        <v>45382.810568000001</v>
       </c>
       <c r="B20" s="1">
-        <v>12.606336</v>
+        <v>12.606336000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1251.000000</v>
+        <v>1251</v>
       </c>
       <c r="D20" s="1">
-        <v>-278.880000</v>
+        <v>-278.88</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>45393.221562</v>
+        <v>45393.221561999999</v>
       </c>
       <c r="G20" s="1">
         <v>12.609228</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.430000</v>
+        <v>1272.43</v>
       </c>
       <c r="I20" s="1">
-        <v>-243.495000</v>
+        <v>-243.495</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>45403.726829</v>
+        <v>45403.726828999999</v>
       </c>
       <c r="L20" s="1">
-        <v>12.612146</v>
+        <v>12.612145999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.970000</v>
+        <v>1304.97</v>
       </c>
       <c r="N20" s="1">
-        <v>-191.787000</v>
+        <v>-191.78700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>45414.023311</v>
+        <v>45414.023310999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>12.615006</v>
+        <v>12.615005999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.740000</v>
+        <v>1316.74</v>
       </c>
       <c r="S20" s="1">
-        <v>-177.190000</v>
+        <v>-177.19</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>45424.558803</v>
       </c>
       <c r="V20" s="1">
-        <v>12.617933</v>
+        <v>12.617933000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.450000</v>
+        <v>1330.45</v>
       </c>
       <c r="X20" s="1">
-        <v>-166.744000</v>
+        <v>-166.744</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>45434.923235</v>
+        <v>45434.923235000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.620812</v>
+        <v>12.620812000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.030000</v>
+        <v>1349.03</v>
       </c>
       <c r="AC20" s="1">
-        <v>-166.906000</v>
+        <v>-166.90600000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>45445.376926</v>
+        <v>45445.376925999997</v>
       </c>
       <c r="AF20" s="1">
         <v>12.623716</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.650000</v>
+        <v>1362.65</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.528000</v>
+        <v>-177.52799999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>45455.914392</v>
+        <v>45455.914391999999</v>
       </c>
       <c r="AK20" s="1">
         <v>12.626643</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.071000</v>
+        <v>-208.071</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>45466.748042</v>
+        <v>45466.748041999999</v>
       </c>
       <c r="AP20" s="1">
         <v>12.629652</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.136000</v>
+        <v>-252.136</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>45478.179606</v>
+        <v>45478.179605999998</v>
       </c>
       <c r="AU20" s="1">
         <v>12.632828</v>
       </c>
       <c r="AV20" s="1">
-        <v>1430.550000</v>
+        <v>1430.55</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.265000</v>
+        <v>-312.26499999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>45488.874045</v>
+        <v>45488.874044999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>12.635798</v>
+        <v>12.635797999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1449.920000</v>
+        <v>1449.92</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.341000</v>
+        <v>-364.34100000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>45499.579230</v>
+        <v>45499.579230000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>12.638772</v>
+        <v>12.638771999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1535.360000</v>
+        <v>1535.36</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.538000</v>
+        <v>-612.53800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>45510.601328</v>
+        <v>45510.601327999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.641834</v>
+        <v>12.641833999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1689.560000</v>
+        <v>1689.56</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1057.250000</v>
+        <v>-1057.25</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>45521.977538</v>
+        <v>45521.977537999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>12.644994</v>
+        <v>12.644994000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1983.310000</v>
+        <v>1983.31</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1827.970000</v>
+        <v>-1827.97</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>45532.918822</v>
@@ -5317,347 +5733,347 @@
         <v>12.648033</v>
       </c>
       <c r="BU20" s="1">
-        <v>2368.780000</v>
+        <v>2368.7800000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2719.950000</v>
+        <v>-2719.95</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>45543.469684</v>
+        <v>45543.469684000003</v>
       </c>
       <c r="BY20" s="1">
         <v>12.650964</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.060000</v>
+        <v>2852.06</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3689.990000</v>
+        <v>-3689.99</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>45556.146932</v>
+        <v>45556.146932000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>12.654485</v>
+        <v>12.654484999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4262.460000</v>
+        <v>4262.46</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6037.860000</v>
+        <v>-6037.86</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>45383.152776</v>
+        <v>45383.152776000003</v>
       </c>
       <c r="B21" s="1">
-        <v>12.606431</v>
+        <v>12.606431000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1250.910000</v>
+        <v>1250.9100000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-278.914000</v>
+        <v>-278.91399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>45393.646634</v>
+        <v>45393.646633999997</v>
       </c>
       <c r="G21" s="1">
         <v>12.609346</v>
       </c>
       <c r="H21" s="1">
-        <v>1272.660000</v>
+        <v>1272.6600000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-244.354000</v>
+        <v>-244.35400000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>45404.148429</v>
+        <v>45404.148429000001</v>
       </c>
       <c r="L21" s="1">
         <v>12.612263</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.550000</v>
+        <v>1304.55</v>
       </c>
       <c r="N21" s="1">
-        <v>-191.727000</v>
+        <v>-191.727</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>45414.305041</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.615085</v>
+        <v>12.615085000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.720000</v>
+        <v>1316.72</v>
       </c>
       <c r="S21" s="1">
-        <v>-177.293000</v>
+        <v>-177.29300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>45424.740835</v>
+        <v>45424.740834999997</v>
       </c>
       <c r="V21" s="1">
         <v>12.617984</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.450000</v>
+        <v>1330.45</v>
       </c>
       <c r="X21" s="1">
-        <v>-166.695000</v>
+        <v>-166.69499999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>45435.272388</v>
+        <v>45435.272387999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.620909</v>
+        <v>12.620908999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.060000</v>
+        <v>1349.06</v>
       </c>
       <c r="AC21" s="1">
-        <v>-166.822000</v>
+        <v>-166.822</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>45445.721605</v>
+        <v>45445.721604999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.623812</v>
+        <v>12.623811999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.585000</v>
+        <v>-177.58500000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>45456.266551</v>
+        <v>45456.266551000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.626741</v>
+        <v>12.626741000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.079000</v>
+        <v>-208.07900000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>45467.468236</v>
+        <v>45467.468236000001</v>
       </c>
       <c r="AP21" s="1">
         <v>12.629852</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1405.810000</v>
+        <v>1405.81</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.153000</v>
+        <v>-252.15299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>45478.569672</v>
+        <v>45478.569671999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>12.632936</v>
+        <v>12.632936000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1430.530000</v>
+        <v>1430.53</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.232000</v>
+        <v>-312.23200000000003</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>45489.237116</v>
+        <v>45489.237115999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.635899</v>
       </c>
       <c r="BA21" s="1">
-        <v>1449.970000</v>
+        <v>1449.97</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.288000</v>
+        <v>-364.28800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>45499.959630</v>
+        <v>45499.959629999998</v>
       </c>
       <c r="BE21" s="1">
         <v>12.638878</v>
       </c>
       <c r="BF21" s="1">
-        <v>1535.350000</v>
+        <v>1535.35</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.513000</v>
+        <v>-612.51300000000003</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>45511.313055</v>
+        <v>45511.313054999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.642031</v>
+        <v>12.642030999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1689.540000</v>
+        <v>1689.54</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1057.260000</v>
+        <v>-1057.26</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>45522.695285</v>
+        <v>45522.695285000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>12.645193</v>
+        <v>12.645193000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1983.230000</v>
+        <v>1983.23</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1827.920000</v>
+        <v>-1827.92</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>45533.034883</v>
       </c>
       <c r="BT21" s="1">
-        <v>12.648065</v>
+        <v>12.648065000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.930000</v>
+        <v>2368.9299999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2720.100000</v>
+        <v>-2720.1</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>45543.915587</v>
+        <v>45543.915587000003</v>
       </c>
       <c r="BY21" s="1">
         <v>12.651088</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.540000</v>
+        <v>2852.54</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3689.070000</v>
+        <v>-3689.07</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>45556.668226</v>
+        <v>45556.668226000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.654630</v>
+        <v>12.654629999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4280.750000</v>
+        <v>4280.75</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6023.680000</v>
+        <v>-6023.68</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>45383.587273</v>
+        <v>45383.587272999997</v>
       </c>
       <c r="B22" s="1">
-        <v>12.606552</v>
+        <v>12.606552000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-278.934000</v>
+        <v>-278.93400000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>45393.925913</v>
+        <v>45393.925912999999</v>
       </c>
       <c r="G22" s="1">
-        <v>12.609424</v>
+        <v>12.609424000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.220000</v>
+        <v>1272.22</v>
       </c>
       <c r="I22" s="1">
-        <v>-243.571000</v>
+        <v>-243.571</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>45404.437132</v>
+        <v>45404.437131999999</v>
       </c>
       <c r="L22" s="1">
         <v>12.612344</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.760000</v>
+        <v>1304.76</v>
       </c>
       <c r="N22" s="1">
-        <v>-191.756000</v>
+        <v>-191.756</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>45414.652703</v>
@@ -5666,133 +6082,133 @@
         <v>12.615181</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.690000</v>
+        <v>1316.69</v>
       </c>
       <c r="S22" s="1">
-        <v>-177.227000</v>
+        <v>-177.227</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>45425.087077</v>
+        <v>45425.087076999996</v>
       </c>
       <c r="V22" s="1">
-        <v>12.618080</v>
+        <v>12.618080000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.450000</v>
+        <v>1330.45</v>
       </c>
       <c r="X22" s="1">
-        <v>-166.816000</v>
+        <v>-166.816</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>45435.618099</v>
+        <v>45435.618098999999</v>
       </c>
       <c r="AA22" s="1">
         <v>12.621005</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.100000</v>
+        <v>1349.1</v>
       </c>
       <c r="AC22" s="1">
-        <v>-166.984000</v>
+        <v>-166.98400000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>45446.407113</v>
+        <v>45446.407113000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>12.624002</v>
+        <v>12.624002000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.570000</v>
+        <v>1362.57</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.719000</v>
+        <v>-177.71899999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>45456.964804</v>
+        <v>45456.964804000003</v>
       </c>
       <c r="AK22" s="1">
         <v>12.626935</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.880000</v>
+        <v>1383.88</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.078000</v>
+        <v>-208.078</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>45467.828792</v>
       </c>
       <c r="AP22" s="1">
-        <v>12.629952</v>
+        <v>12.629951999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1405.820000</v>
+        <v>1405.82</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.151000</v>
+        <v>-252.15100000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>45478.934250</v>
+        <v>45478.934249999998</v>
       </c>
       <c r="AU22" s="1">
         <v>12.633037</v>
       </c>
       <c r="AV22" s="1">
-        <v>1430.530000</v>
+        <v>1430.53</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.200000</v>
+        <v>-312.2</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>45489.596219</v>
+        <v>45489.596218999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.635999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1449.930000</v>
+        <v>1449.93</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.352000</v>
+        <v>-364.35199999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>45500.624318</v>
+        <v>45500.624318000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>12.639062</v>
+        <v>12.639061999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1535.370000</v>
+        <v>1535.37</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.503000</v>
+        <v>-612.50300000000004</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>45511.755523</v>
@@ -5801,225 +6217,225 @@
         <v>12.642154</v>
       </c>
       <c r="BK22" s="1">
-        <v>1689.550000</v>
+        <v>1689.55</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1057.220000</v>
+        <v>-1057.22</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>45522.813791</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.645226</v>
+        <v>12.645225999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1983.180000</v>
+        <v>1983.18</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1827.790000</v>
+        <v>-1827.79</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>45533.475299</v>
+        <v>45533.475298999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>12.648188</v>
+        <v>12.648187999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2369.270000</v>
+        <v>2369.27</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2720.450000</v>
+        <v>-2720.45</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>45544.347107</v>
+        <v>45544.347107000001</v>
       </c>
       <c r="BY22" s="1">
         <v>12.651208</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2852.300000</v>
+        <v>2852.3</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3689.350000</v>
+        <v>-3689.35</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>45557.205781</v>
+        <v>45557.205780999997</v>
       </c>
       <c r="CD22" s="1">
         <v>12.654779</v>
       </c>
       <c r="CE22" s="1">
-        <v>4260.760000</v>
+        <v>4260.76</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6031.040000</v>
+        <v>-6031.04</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>45383.850678</v>
+        <v>45383.850678000003</v>
       </c>
       <c r="B23" s="1">
-        <v>12.606625</v>
+        <v>12.606624999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1251.050000</v>
+        <v>1251.05</v>
       </c>
       <c r="D23" s="1">
-        <v>-278.738000</v>
+        <v>-278.738</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>45394.270319</v>
+        <v>45394.270319000003</v>
       </c>
       <c r="G23" s="1">
-        <v>12.609520</v>
+        <v>12.60952</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.930000</v>
+        <v>1272.93</v>
       </c>
       <c r="I23" s="1">
-        <v>-242.633000</v>
+        <v>-242.63300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>45404.783804</v>
+        <v>45404.783803999999</v>
       </c>
       <c r="L23" s="1">
-        <v>12.612440</v>
+        <v>12.612439999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.700000</v>
+        <v>1304.7</v>
       </c>
       <c r="N23" s="1">
-        <v>-191.738000</v>
+        <v>-191.738</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>45415.000399</v>
+        <v>45415.000398999997</v>
       </c>
       <c r="Q23" s="1">
         <v>12.615278</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.730000</v>
+        <v>1316.73</v>
       </c>
       <c r="S23" s="1">
-        <v>-177.098000</v>
+        <v>-177.09800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>45425.772512</v>
+        <v>45425.772512000003</v>
       </c>
       <c r="V23" s="1">
-        <v>12.618270</v>
+        <v>12.618270000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.480000</v>
+        <v>1330.48</v>
       </c>
       <c r="X23" s="1">
-        <v>-166.971000</v>
+        <v>-166.971</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>45436.318945</v>
+        <v>45436.318944999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.621200</v>
+        <v>12.6212</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.060000</v>
+        <v>1349.06</v>
       </c>
       <c r="AC23" s="1">
-        <v>-166.841000</v>
+        <v>-166.84100000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>45446.751796</v>
+        <v>45446.751795999997</v>
       </c>
       <c r="AF23" s="1">
         <v>12.624098</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.530000</v>
+        <v>1362.53</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.420000</v>
+        <v>-177.42</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>45457.312120</v>
+        <v>45457.312120000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.627031</v>
+        <v>12.627031000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.066000</v>
+        <v>-208.066</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>45468.188920</v>
+        <v>45468.188920000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>12.630052</v>
+        <v>12.630051999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1405.800000</v>
+        <v>1405.8</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.135000</v>
+        <v>-252.13499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>45479.617208</v>
+        <v>45479.617208000003</v>
       </c>
       <c r="AU23" s="1">
         <v>12.633227</v>
       </c>
       <c r="AV23" s="1">
-        <v>1430.550000</v>
+        <v>1430.55</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.264000</v>
+        <v>-312.26400000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>45490.298058</v>
@@ -6028,165 +6444,165 @@
         <v>12.636194</v>
       </c>
       <c r="BA23" s="1">
-        <v>1449.940000</v>
+        <v>1449.94</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.333000</v>
+        <v>-364.33300000000003</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>45501.042931</v>
+        <v>45501.042931000004</v>
       </c>
       <c r="BE23" s="1">
         <v>12.639179</v>
       </c>
       <c r="BF23" s="1">
-        <v>1535.310000</v>
+        <v>1535.31</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.497000</v>
+        <v>-612.49699999999996</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>45512.156750</v>
+        <v>45512.156750000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.642266</v>
+        <v>12.642265999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1689.490000</v>
+        <v>1689.49</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1057.290000</v>
+        <v>-1057.29</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>45523.224976</v>
+        <v>45523.224975999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>12.645340</v>
+        <v>12.645339999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1983.300000</v>
+        <v>1983.3</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1827.760000</v>
+        <v>-1827.76</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>45533.884002</v>
+        <v>45533.884001999999</v>
       </c>
       <c r="BT23" s="1">
         <v>12.648301</v>
       </c>
       <c r="BU23" s="1">
-        <v>2369.460000</v>
+        <v>2369.46</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2719.950000</v>
+        <v>-2719.95</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>45544.769698</v>
+        <v>45544.769697999996</v>
       </c>
       <c r="BY23" s="1">
         <v>12.651325</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.410000</v>
+        <v>2852.41</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3689.270000</v>
+        <v>-3689.27</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>45557.747025</v>
+        <v>45557.747024999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.654930</v>
+        <v>12.65493</v>
       </c>
       <c r="CE23" s="1">
-        <v>4278.840000</v>
+        <v>4278.84</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6038.610000</v>
+        <v>-6038.61</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>45384.194374</v>
+        <v>45384.194373999999</v>
       </c>
       <c r="B24" s="1">
         <v>12.606721</v>
       </c>
       <c r="C24" s="1">
-        <v>1251.240000</v>
+        <v>1251.24</v>
       </c>
       <c r="D24" s="1">
-        <v>-278.979000</v>
+        <v>-278.97899999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>45394.617336</v>
+        <v>45394.617336000003</v>
       </c>
       <c r="G24" s="1">
-        <v>12.609616</v>
+        <v>12.609616000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.280000</v>
+        <v>1272.28</v>
       </c>
       <c r="I24" s="1">
-        <v>-243.532000</v>
+        <v>-243.53200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>45405.126539</v>
+        <v>45405.126538999997</v>
       </c>
       <c r="L24" s="1">
-        <v>12.612535</v>
+        <v>12.612534999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.660000</v>
+        <v>1304.6600000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-191.767000</v>
+        <v>-191.767</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>45415.698306</v>
+        <v>45415.698305999998</v>
       </c>
       <c r="Q24" s="1">
         <v>12.615472</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S24" s="1">
-        <v>-177.170000</v>
+        <v>-177.17</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>45426.116768</v>
@@ -6195,13 +6611,13 @@
         <v>12.618366</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.720000</v>
+        <v>1330.72</v>
       </c>
       <c r="X24" s="1">
-        <v>-166.925000</v>
+        <v>-166.92500000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>45436.663665</v>
@@ -6210,28 +6626,28 @@
         <v>12.621295</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.220000</v>
+        <v>1349.22</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.093000</v>
+        <v>-167.09299999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>45447.095060</v>
+        <v>45447.09506</v>
       </c>
       <c r="AF24" s="1">
         <v>12.624193</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.460000</v>
+        <v>1362.46</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.441000</v>
+        <v>-177.441</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>45457.974317</v>
@@ -6240,482 +6656,482 @@
         <v>12.627215</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.031000</v>
+        <v>-208.03100000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>45468.859015</v>
+        <v>45468.859015000002</v>
       </c>
       <c r="AP24" s="1">
         <v>12.630239</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1405.830000</v>
+        <v>1405.83</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.187000</v>
+        <v>-252.18700000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>45480.064601</v>
+        <v>45480.064600999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>12.633351</v>
+        <v>12.633350999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1430.550000</v>
+        <v>1430.55</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.198000</v>
+        <v>-312.19799999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>45490.693866</v>
+        <v>45490.693866000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>12.636304</v>
+        <v>12.636304000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1449.910000</v>
+        <v>1449.91</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.347000</v>
+        <v>-364.34699999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>45501.434237</v>
+        <v>45501.434237000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>12.639287</v>
+        <v>12.639286999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1535.370000</v>
+        <v>1535.37</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.505000</v>
+        <v>-612.505</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>45512.531230</v>
+        <v>45512.531230000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>12.642370</v>
+        <v>12.64237</v>
       </c>
       <c r="BK24" s="1">
-        <v>1689.580000</v>
+        <v>1689.58</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1057.180000</v>
+        <v>-1057.18</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>45523.788432</v>
+        <v>45523.788432000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.645497</v>
+        <v>12.645497000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1983.280000</v>
+        <v>1983.28</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1827.890000</v>
+        <v>-1827.89</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>45534.316016</v>
+        <v>45534.316015999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>12.648421</v>
+        <v>12.648421000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2369.910000</v>
+        <v>2369.91</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2720.250000</v>
+        <v>-2720.25</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>45545.192786</v>
       </c>
       <c r="BY24" s="1">
-        <v>12.651442</v>
+        <v>12.651441999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2853.020000</v>
+        <v>2853.02</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3689.230000</v>
+        <v>-3689.23</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>45558.284220</v>
+        <v>45558.284220000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>12.655079</v>
+        <v>12.655079000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4270.640000</v>
+        <v>4270.6400000000003</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6022.600000</v>
+        <v>-6022.6</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>45384.537944</v>
+        <v>45384.537944000003</v>
       </c>
       <c r="B25" s="1">
         <v>12.606816</v>
       </c>
       <c r="C25" s="1">
-        <v>1251.450000</v>
+        <v>1251.45</v>
       </c>
       <c r="D25" s="1">
-        <v>-279.137000</v>
+        <v>-279.137</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>45395.309720</v>
+        <v>45395.309719999997</v>
       </c>
       <c r="G25" s="1">
-        <v>12.609808</v>
+        <v>12.609807999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.270000</v>
+        <v>1272.27</v>
       </c>
       <c r="I25" s="1">
-        <v>-244.092000</v>
+        <v>-244.09200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>45405.817002</v>
+        <v>45405.817002000003</v>
       </c>
       <c r="L25" s="1">
         <v>12.612727</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.780000</v>
+        <v>1304.78</v>
       </c>
       <c r="N25" s="1">
-        <v>-191.588000</v>
+        <v>-191.58799999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>45416.046001</v>
+        <v>45416.046001000002</v>
       </c>
       <c r="Q25" s="1">
         <v>12.615568</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.830000</v>
+        <v>1316.83</v>
       </c>
       <c r="S25" s="1">
-        <v>-177.208000</v>
+        <v>-177.208</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>45426.460958</v>
+        <v>45426.460958000003</v>
       </c>
       <c r="V25" s="1">
         <v>12.618461</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.720000</v>
+        <v>1330.72</v>
       </c>
       <c r="X25" s="1">
-        <v>-166.781000</v>
+        <v>-166.78100000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>45437.018336</v>
+        <v>45437.018336000001</v>
       </c>
       <c r="AA25" s="1">
         <v>12.621394</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.100000</v>
+        <v>1349.1</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.042000</v>
+        <v>-167.042</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>45447.761651</v>
+        <v>45447.761651000001</v>
       </c>
       <c r="AF25" s="1">
         <v>12.624378</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.530000</v>
+        <v>1362.53</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.686000</v>
+        <v>-177.68600000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>45458.358708</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.627322</v>
+        <v>12.627321999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.064000</v>
+        <v>-208.06399999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>45469.294999</v>
+        <v>45469.294998999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>12.630360</v>
+        <v>12.63036</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1405.750000</v>
+        <v>1405.75</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.119000</v>
+        <v>-252.119</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>45480.426185</v>
+        <v>45480.426184999997</v>
       </c>
       <c r="AU25" s="1">
         <v>12.633452</v>
       </c>
       <c r="AV25" s="1">
-        <v>1430.560000</v>
+        <v>1430.56</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.247000</v>
+        <v>-312.24700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>45491.077305</v>
+        <v>45491.077304999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>12.636410</v>
+        <v>12.63641</v>
       </c>
       <c r="BA25" s="1">
-        <v>1449.950000</v>
+        <v>1449.95</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.361000</v>
+        <v>-364.36099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>45501.794017</v>
       </c>
       <c r="BE25" s="1">
-        <v>12.639387</v>
+        <v>12.639386999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1535.340000</v>
+        <v>1535.34</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.506000</v>
+        <v>-612.50599999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>45512.950387</v>
+        <v>45512.950386999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>12.642486</v>
       </c>
       <c r="BK25" s="1">
-        <v>1689.540000</v>
+        <v>1689.54</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1057.190000</v>
+        <v>-1057.19</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>45524.039903</v>
+        <v>45524.039902999997</v>
       </c>
       <c r="BO25" s="1">
         <v>12.645567</v>
       </c>
       <c r="BP25" s="1">
-        <v>1983.130000</v>
+        <v>1983.13</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1827.780000</v>
+        <v>-1827.78</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>45534.746548</v>
+        <v>45534.746548000003</v>
       </c>
       <c r="BT25" s="1">
         <v>12.648541</v>
       </c>
       <c r="BU25" s="1">
-        <v>2370.080000</v>
+        <v>2370.08</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2720.000000</v>
+        <v>-2720</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>45545.617361</v>
+        <v>45545.617360999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>12.651560</v>
+        <v>12.65156</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3688.710000</v>
+        <v>-3688.71</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>45558.825359</v>
+        <v>45558.825359000002</v>
       </c>
       <c r="CD25" s="1">
         <v>12.655229</v>
       </c>
       <c r="CE25" s="1">
-        <v>4264.170000</v>
+        <v>4264.17</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6042.820000</v>
+        <v>-6042.82</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>45385.220101</v>
+        <v>45385.220100999999</v>
       </c>
       <c r="B26" s="1">
         <v>12.607006</v>
       </c>
       <c r="C26" s="1">
-        <v>1251.210000</v>
+        <v>1251.21</v>
       </c>
       <c r="D26" s="1">
-        <v>-279.098000</v>
+        <v>-279.09800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>45395.655467</v>
+        <v>45395.655466999997</v>
       </c>
       <c r="G26" s="1">
         <v>12.609904</v>
       </c>
       <c r="H26" s="1">
-        <v>1271.290000</v>
+        <v>1271.29</v>
       </c>
       <c r="I26" s="1">
-        <v>-243.395000</v>
+        <v>-243.39500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>45406.163210</v>
+        <v>45406.163209999999</v>
       </c>
       <c r="L26" s="1">
-        <v>12.612823</v>
+        <v>12.612823000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.740000</v>
+        <v>1304.74</v>
       </c>
       <c r="N26" s="1">
-        <v>-191.776000</v>
+        <v>-191.77600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>45416.392699</v>
+        <v>45416.392699000004</v>
       </c>
       <c r="Q26" s="1">
         <v>12.615665</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S26" s="1">
-        <v>-177.194000</v>
+        <v>-177.19399999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>45427.118654</v>
+        <v>45427.118653999998</v>
       </c>
       <c r="V26" s="1">
         <v>12.618644</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.760000</v>
+        <v>1330.76</v>
       </c>
       <c r="X26" s="1">
-        <v>-166.883000</v>
+        <v>-166.88300000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>45437.676496</v>
@@ -6724,180 +7140,181 @@
         <v>12.621577</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.060000</v>
+        <v>1349.06</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.002000</v>
+        <v>-167.00200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>45448.132162</v>
+        <v>45448.132162000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.624481</v>
+        <v>12.624480999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.490000</v>
+        <v>1362.49</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.443000</v>
+        <v>-177.44300000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>45458.704885</v>
+        <v>45458.704884999999</v>
       </c>
       <c r="AK26" s="1">
         <v>12.627418</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.102000</v>
+        <v>-208.102</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>45469.657542</v>
+        <v>45469.657542000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>12.630460</v>
+        <v>12.630459999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.153000</v>
+        <v>-252.15299999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>45480.794743</v>
+        <v>45480.794742999999</v>
       </c>
       <c r="AU26" s="1">
         <v>12.633554</v>
       </c>
       <c r="AV26" s="1">
-        <v>1430.550000</v>
+        <v>1430.55</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.234000</v>
+        <v>-312.23399999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>45491.512266</v>
+        <v>45491.512265999998</v>
       </c>
       <c r="AZ26" s="1">
         <v>12.636531</v>
       </c>
       <c r="BA26" s="1">
-        <v>1449.980000</v>
+        <v>1449.98</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.346000</v>
+        <v>-364.346</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>45502.217915</v>
+        <v>45502.217915000001</v>
       </c>
       <c r="BE26" s="1">
         <v>12.639505</v>
       </c>
       <c r="BF26" s="1">
-        <v>1535.340000</v>
+        <v>1535.34</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.464000</v>
+        <v>-612.46400000000006</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>45513.304493</v>
+        <v>45513.304493000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>12.642585</v>
       </c>
       <c r="BK26" s="1">
-        <v>1689.580000</v>
+        <v>1689.58</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1057.190000</v>
+        <v>-1057.19</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>45524.436205</v>
+        <v>45524.436204999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>12.645677</v>
+        <v>12.645676999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1983.120000</v>
+        <v>1983.12</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1827.780000</v>
+        <v>-1827.78</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>45535.159743</v>
+        <v>45535.159742999997</v>
       </c>
       <c r="BT26" s="1">
         <v>12.648655</v>
       </c>
       <c r="BU26" s="1">
-        <v>2370.480000</v>
+        <v>2370.48</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2720.030000</v>
+        <v>-2720.03</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>45546.031552</v>
       </c>
       <c r="BY26" s="1">
-        <v>12.651675</v>
+        <v>12.651674999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.990000</v>
+        <v>2852.99</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3688.640000</v>
+        <v>-3688.64</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>45559.365969</v>
+        <v>45559.365968999999</v>
       </c>
       <c r="CD26" s="1">
         <v>12.655379</v>
       </c>
       <c r="CE26" s="1">
-        <v>4281.390000</v>
+        <v>4281.3900000000003</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6024.300000</v>
+        <v>-6024.3</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>